--- a/scripts/productos_belleza.xlsx
+++ b/scripts/productos_belleza.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F282"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,19 +435,19 @@
         <v>CREMAS</v>
       </c>
       <c r="B2" t="str">
-        <v>3INA</v>
+        <v>Biotherm</v>
       </c>
       <c r="C2" t="str">
-        <v>THE SORBET FACE CREAM</v>
+        <v>AQUASOURCE HYDRA BARRIER CREAM</v>
       </c>
       <c r="D2" t="str">
-        <v>Crema Hidratación</v>
+        <v/>
       </c>
       <c r="E2" t="str">
         <v>50ml</v>
       </c>
       <c r="F2" t="str">
-        <v>20€</v>
+        <v>32€</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>Biotherm</v>
       </c>
       <c r="C3" t="str">
-        <v>AQUASOURCE HYDRA BARRIER CREAM</v>
+        <v>CERA REPAIR BARRIER CREAM</v>
       </c>
       <c r="D3" t="str">
         <v/>
@@ -478,16 +478,16 @@
         <v>Biotherm</v>
       </c>
       <c r="C4" t="str">
-        <v>CERA REPAIR BARRIER CREAM</v>
+        <v>BLUE PEPTIDES UPLIFT CREAM RICH</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>Piel Seca, DÍA</v>
       </c>
       <c r="E4" t="str">
         <v>50ml</v>
       </c>
       <c r="F4" t="str">
-        <v>32€</v>
+        <v>45€</v>
       </c>
     </row>
     <row r="5">
@@ -498,10 +498,10 @@
         <v>Biotherm</v>
       </c>
       <c r="C5" t="str">
-        <v>BLUE PEPTIDES UPLIFT CREAM RICH</v>
+        <v>BLUE PEPTIDES UPLIFT CREAM NIGHT</v>
       </c>
       <c r="D5" t="str">
-        <v>Piel Seca, DÍA</v>
+        <v>Todo Tipo Piel, NOCHE</v>
       </c>
       <c r="E5" t="str">
         <v>50ml</v>
@@ -518,16 +518,16 @@
         <v>Biotherm</v>
       </c>
       <c r="C6" t="str">
-        <v>BLUE PEPTIDES UPLIFT CREAM NIGHT</v>
+        <v>URBAN UV DEFENSE HYDRATATION SPF50</v>
       </c>
       <c r="D6" t="str">
-        <v>Todo Tipo Piel, NOCHE</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v>50ml</v>
+        <v>30ml</v>
       </c>
       <c r="F6" t="str">
-        <v>45€</v>
+        <v>25€</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>EXTRA FIRMING JOUR</v>
       </c>
       <c r="D21" t="str">
-        <v>COLLAGENO, DÍA, TODO TIPO PIEL</v>
+        <v>COLLAGENO, DÍA, PIEL SECA</v>
       </c>
       <c r="E21" t="str">
         <v>50ml</v>
@@ -838,10 +838,10 @@
         <v>Clarins</v>
       </c>
       <c r="C22" t="str">
-        <v>EXTRA FIRMING JOUR</v>
+        <v>EXTRA FIRMING NUIT</v>
       </c>
       <c r="D22" t="str">
-        <v>COLLAGENO, DÍA, PIEL SECA</v>
+        <v>NOCHE, TODO TIPO PIEL</v>
       </c>
       <c r="E22" t="str">
         <v>50ml</v>
@@ -861,7 +861,7 @@
         <v>EXTRA FIRMING NUIT</v>
       </c>
       <c r="D23" t="str">
-        <v>NOCHE, TODO TIPO PIEL</v>
+        <v>NOCHE, PIEL SECA</v>
       </c>
       <c r="E23" t="str">
         <v>50ml</v>
@@ -881,7 +881,7 @@
         <v>EXTRA FIRMING NUIT</v>
       </c>
       <c r="D24" t="str">
-        <v>NOCHE, PIEL SECA</v>
+        <v>COLLAGENO, NOCHE, PIEL SECA</v>
       </c>
       <c r="E24" t="str">
         <v>50ml</v>
@@ -898,10 +898,10 @@
         <v>Clarins</v>
       </c>
       <c r="C25" t="str">
-        <v>EXTRA FIRMING NUIT</v>
+        <v>EXTRA FIRMING ENERGY</v>
       </c>
       <c r="D25" t="str">
-        <v>COLLAGENO, NOCHE, PIEL SECA</v>
+        <v>TODO TIPO PIEL</v>
       </c>
       <c r="E25" t="str">
         <v>50ml</v>
@@ -918,16 +918,16 @@
         <v>Clarins</v>
       </c>
       <c r="C26" t="str">
-        <v>EXTRA FIRMING ENERGY</v>
+        <v>MULTI-INTENSIVE JOUR SPF15</v>
       </c>
       <c r="D26" t="str">
-        <v>TODO TIPO PIEL</v>
+        <v>DIA, TODO TIPO PIEL</v>
       </c>
       <c r="E26" t="str">
         <v>50ml</v>
       </c>
       <c r="F26" t="str">
-        <v>50€</v>
+        <v>55€</v>
       </c>
     </row>
     <row r="27">
@@ -938,7 +938,7 @@
         <v>Clarins</v>
       </c>
       <c r="C27" t="str">
-        <v>MULTI-INTENSIVE JOUR SPF15</v>
+        <v>MULTI-INTENSIVE JOUR</v>
       </c>
       <c r="D27" t="str">
         <v>DIA, TODO TIPO PIEL</v>
@@ -961,7 +961,7 @@
         <v>MULTI-INTENSIVE JOUR</v>
       </c>
       <c r="D28" t="str">
-        <v>DIA, TODO TIPO PIEL</v>
+        <v>DIA, PIEL MUY SECAS</v>
       </c>
       <c r="E28" t="str">
         <v>50ml</v>
@@ -978,10 +978,10 @@
         <v>Clarins</v>
       </c>
       <c r="C29" t="str">
-        <v>MULTI-INTENSIVE JOUR</v>
+        <v>MULTI-INTENSIVE NUIT</v>
       </c>
       <c r="D29" t="str">
-        <v>DIA, PIEL MUY SECAS</v>
+        <v>NOCHE, TODO TIPO PIEL</v>
       </c>
       <c r="E29" t="str">
         <v>50ml</v>
@@ -1001,7 +1001,7 @@
         <v>MULTI-INTENSIVE NUIT</v>
       </c>
       <c r="D30" t="str">
-        <v>NOCHE, TODO TIPO PIEL</v>
+        <v>NOCHE, PIEL MUY SECAS</v>
       </c>
       <c r="E30" t="str">
         <v>50ml</v>
@@ -1018,16 +1018,16 @@
         <v>Clarins</v>
       </c>
       <c r="C31" t="str">
-        <v>MULTI-INTENSIVE NUIT</v>
+        <v>MULTI-INTENSIVE</v>
       </c>
       <c r="D31" t="str">
-        <v>NOCHE, PIEL MUY SECAS</v>
+        <v>CUELLO Y ESCOTE</v>
       </c>
       <c r="E31" t="str">
-        <v>50ml</v>
+        <v>75ml</v>
       </c>
       <c r="F31" t="str">
-        <v>55€</v>
+        <v>50€</v>
       </c>
     </row>
     <row r="32">
@@ -1038,16 +1038,16 @@
         <v>Clarins</v>
       </c>
       <c r="C32" t="str">
-        <v>MULTI-INTENSIVE</v>
+        <v>ROSE RADIANCE</v>
       </c>
       <c r="D32" t="str">
-        <v>CUELLO Y ESCOTE</v>
+        <v>DÍA/NOCHE, TODO TIPO PIEL</v>
       </c>
       <c r="E32" t="str">
-        <v>75ml</v>
+        <v>50ml</v>
       </c>
       <c r="F32" t="str">
-        <v>50€</v>
+        <v>55€</v>
       </c>
     </row>
     <row r="33">
@@ -1058,16 +1058,16 @@
         <v>Clarins</v>
       </c>
       <c r="C33" t="str">
-        <v>ROSE RADIANCE</v>
+        <v>NUTRI-LUMIERE JOUR</v>
       </c>
       <c r="D33" t="str">
-        <v>DÍA/NOCHE, TODO TIPO PIEL</v>
+        <v>DIA</v>
       </c>
       <c r="E33" t="str">
         <v>50ml</v>
       </c>
       <c r="F33" t="str">
-        <v>55€</v>
+        <v>60€</v>
       </c>
     </row>
     <row r="34">
@@ -1078,7 +1078,7 @@
         <v>Clarins</v>
       </c>
       <c r="C34" t="str">
-        <v>NUTRI-LUMIERE JOUR</v>
+        <v>NUTRI-LUMIERE JOUR SPF15</v>
       </c>
       <c r="D34" t="str">
         <v>DIA</v>
@@ -1098,7 +1098,7 @@
         <v>Clarins</v>
       </c>
       <c r="C35" t="str">
-        <v>NUTRI-LUMIERE JOUR SPF15</v>
+        <v>NUTRI-LUMIERE JOUR EMULSION</v>
       </c>
       <c r="D35" t="str">
         <v>DIA</v>
@@ -1118,7 +1118,7 @@
         <v>Clarins</v>
       </c>
       <c r="C36" t="str">
-        <v>NUTRI-LUMIERE JOUR EMULSION</v>
+        <v>NUTRI-LUMIERE REVIVE</v>
       </c>
       <c r="D36" t="str">
         <v>DIA</v>
@@ -1138,10 +1138,10 @@
         <v>Clarins</v>
       </c>
       <c r="C37" t="str">
-        <v>NUTRI-LUMIERE REVIVE</v>
+        <v>NUTRI-LUMIERE NUIT</v>
       </c>
       <c r="D37" t="str">
-        <v>DIA</v>
+        <v>NOCHE</v>
       </c>
       <c r="E37" t="str">
         <v>50ml</v>
@@ -1155,19 +1155,19 @@
         <v>CREMAS</v>
       </c>
       <c r="B38" t="str">
-        <v>Clarins</v>
+        <v>Clinique</v>
       </c>
       <c r="C38" t="str">
-        <v>NUTRI-LUMIERE NUIT</v>
+        <v>SMART SPF15</v>
       </c>
       <c r="D38" t="str">
-        <v>NOCHE</v>
+        <v>DÍA, Piel Mixta/Grasa</v>
       </c>
       <c r="E38" t="str">
         <v>50ml</v>
       </c>
       <c r="F38" t="str">
-        <v>60€</v>
+        <v>45€</v>
       </c>
     </row>
     <row r="39">
@@ -1178,10 +1178,10 @@
         <v>Clinique</v>
       </c>
       <c r="C39" t="str">
-        <v>SMART SPF15</v>
+        <v>SMART NIGHT</v>
       </c>
       <c r="D39" t="str">
-        <v>DÍA, Piel Mixta/Grasa</v>
+        <v>NOCHE, Piel Seca/Mixta</v>
       </c>
       <c r="E39" t="str">
         <v>50ml</v>
@@ -1198,16 +1198,16 @@
         <v>Clinique</v>
       </c>
       <c r="C40" t="str">
-        <v>SMART NIGHT</v>
+        <v>SMART CLINICAL REPAIR SPF30</v>
       </c>
       <c r="D40" t="str">
-        <v>NOCHE, Piel Seca/Mixta</v>
+        <v>DÍA</v>
       </c>
       <c r="E40" t="str">
         <v>50ml</v>
       </c>
       <c r="F40" t="str">
-        <v>45€</v>
+        <v>50€</v>
       </c>
     </row>
     <row r="41">
@@ -1218,10 +1218,10 @@
         <v>Clinique</v>
       </c>
       <c r="C41" t="str">
-        <v>SMART CLINICAL REPAIR SPF30</v>
+        <v>SMART CLINICAL REPAIR</v>
       </c>
       <c r="D41" t="str">
-        <v>DÍA</v>
+        <v>Rostro/Cuello, DÍA/NOCHE</v>
       </c>
       <c r="E41" t="str">
         <v>50ml</v>
@@ -1238,10 +1238,10 @@
         <v>Clinique</v>
       </c>
       <c r="C42" t="str">
-        <v>SMART CLINICAL REPAIR</v>
+        <v>SMART CLINICAL NIGHT</v>
       </c>
       <c r="D42" t="str">
-        <v>Rostro/Cuello, DÍA/NOCHE</v>
+        <v>Noche</v>
       </c>
       <c r="E42" t="str">
         <v>50ml</v>
@@ -1258,16 +1258,16 @@
         <v>Clinique</v>
       </c>
       <c r="C43" t="str">
-        <v>SMART CLINICAL NIGHT</v>
+        <v>SUPERDEFENSE SPF25</v>
       </c>
       <c r="D43" t="str">
-        <v>Noche</v>
+        <v>Día, Piel seca/Mixta</v>
       </c>
       <c r="E43" t="str">
         <v>50ml</v>
       </c>
       <c r="F43" t="str">
-        <v>50€</v>
+        <v>35€</v>
       </c>
     </row>
     <row r="44">
@@ -1278,10 +1278,10 @@
         <v>Clinique</v>
       </c>
       <c r="C44" t="str">
-        <v>SUPERDEFENSE SPF25</v>
+        <v>SUPERDEFENSE NIGHT</v>
       </c>
       <c r="D44" t="str">
-        <v>Día, Piel seca/Mixta</v>
+        <v>Noche, Piel mixta/Piel Grasa</v>
       </c>
       <c r="E44" t="str">
         <v>50ml</v>
@@ -1295,19 +1295,19 @@
         <v>CREMAS</v>
       </c>
       <c r="B45" t="str">
-        <v>Clinique</v>
+        <v>Dior</v>
       </c>
       <c r="C45" t="str">
-        <v>SUPERDEFENSE NIGHT</v>
+        <v>CAPTURE TOTALE DREAMSKIN PERFECT CUSHION SPF50</v>
       </c>
       <c r="D45" t="str">
-        <v>Noche, Piel mixta/Piel Grasa</v>
+        <v>Tono 000, Corrector Hidratante</v>
       </c>
       <c r="E45" t="str">
-        <v>50ml</v>
+        <v>15G</v>
       </c>
       <c r="F45" t="str">
-        <v>35€</v>
+        <v>55€</v>
       </c>
     </row>
     <row r="46">
@@ -1315,19 +1315,19 @@
         <v>CREMAS</v>
       </c>
       <c r="B46" t="str">
-        <v>Dior</v>
+        <v>Elizabeth Arden</v>
       </c>
       <c r="C46" t="str">
-        <v>CAPTURE TOTALE DREAMSKIN PERFECT CUSHION SPF50</v>
+        <v>PREVAGE ANTI-EDAD OVERNIGHT</v>
       </c>
       <c r="D46" t="str">
-        <v>Tono 000, Corrector Hidratante</v>
+        <v>NOCHE</v>
       </c>
       <c r="E46" t="str">
-        <v>15G</v>
+        <v>50ml</v>
       </c>
       <c r="F46" t="str">
-        <v>55€</v>
+        <v>70€</v>
       </c>
     </row>
     <row r="47">
@@ -1338,16 +1338,16 @@
         <v>Elizabeth Arden</v>
       </c>
       <c r="C47" t="str">
-        <v>PREVAGE ANTI-EDAD OVERNIGHT</v>
+        <v>SUPERSTAR SKIN RENEWAL BOOSTER</v>
       </c>
       <c r="D47" t="str">
-        <v>NOCHE</v>
+        <v/>
       </c>
       <c r="E47" t="str">
-        <v>50ml</v>
+        <v>30ml</v>
       </c>
       <c r="F47" t="str">
-        <v>70€</v>
+        <v>28€</v>
       </c>
     </row>
     <row r="48">
@@ -1364,10 +1364,10 @@
         <v/>
       </c>
       <c r="E48" t="str">
-        <v>30ml</v>
+        <v>50ml</v>
       </c>
       <c r="F48" t="str">
-        <v>28€</v>
+        <v>35€</v>
       </c>
     </row>
     <row r="49">
@@ -1378,16 +1378,16 @@
         <v>Elizabeth Arden</v>
       </c>
       <c r="C49" t="str">
-        <v>SUPERSTAR SKIN RENEWAL BOOSTER</v>
+        <v>VISIBLE DIFFERENCE REPLENISHING CREMA COMPLEX</v>
       </c>
       <c r="D49" t="str">
-        <v/>
+        <v>Crema Hidratante</v>
       </c>
       <c r="E49" t="str">
-        <v>50ml</v>
+        <v>75ml</v>
       </c>
       <c r="F49" t="str">
-        <v>35€</v>
+        <v>22€</v>
       </c>
     </row>
     <row r="50">
@@ -1395,19 +1395,19 @@
         <v>CREMAS</v>
       </c>
       <c r="B50" t="str">
-        <v>Elizabeth Arden</v>
+        <v>Juvena</v>
       </c>
       <c r="C50" t="str">
-        <v>VISIBLE DIFFERENCE REPLENISHING CREMA COMPLEX</v>
+        <v>SKIN ENERGY AQUA RECHARGE ESSENCE</v>
       </c>
       <c r="D50" t="str">
-        <v>Crema Hidratante</v>
+        <v/>
       </c>
       <c r="E50" t="str">
-        <v>75ml</v>
+        <v>50ml</v>
       </c>
       <c r="F50" t="str">
-        <v>22€</v>
+        <v>40€</v>
       </c>
     </row>
     <row r="51">
@@ -1418,16 +1418,16 @@
         <v>Juvena</v>
       </c>
       <c r="C51" t="str">
-        <v>SKIN ENERGY AQUA RECHARGE ESSENCE</v>
+        <v>SKIN ENERGY GEL HYDRATANT</v>
       </c>
       <c r="D51" t="str">
-        <v/>
+        <v>DÍA/NOCHE</v>
       </c>
       <c r="E51" t="str">
         <v>50ml</v>
       </c>
       <c r="F51" t="str">
-        <v>40€</v>
+        <v>35€</v>
       </c>
     </row>
     <row r="52">
@@ -1435,19 +1435,19 @@
         <v>CREMAS</v>
       </c>
       <c r="B52" t="str">
-        <v>Juvena</v>
+        <v>Lancaster</v>
       </c>
       <c r="C52" t="str">
-        <v>SKIN ENERGY GEL HYDRATANT</v>
+        <v>GOLDEN LIFT SPF15</v>
       </c>
       <c r="D52" t="str">
-        <v>DÍA/NOCHE</v>
+        <v>DÍA</v>
       </c>
       <c r="E52" t="str">
         <v>50ml</v>
       </c>
       <c r="F52" t="str">
-        <v>35€</v>
+        <v>50€</v>
       </c>
     </row>
     <row r="53">
@@ -1458,16 +1458,16 @@
         <v>Lancaster</v>
       </c>
       <c r="C53" t="str">
-        <v>GOLDEN LIFT SPF15</v>
+        <v>SKIN LIFE</v>
       </c>
       <c r="D53" t="str">
-        <v>DÍA</v>
+        <v>NOCHE</v>
       </c>
       <c r="E53" t="str">
         <v>50ml</v>
       </c>
       <c r="F53" t="str">
-        <v>50€</v>
+        <v>35€</v>
       </c>
     </row>
     <row r="54">
@@ -1475,19 +1475,19 @@
         <v>CREMAS</v>
       </c>
       <c r="B54" t="str">
-        <v>Lancaster</v>
+        <v>Lancome</v>
       </c>
       <c r="C54" t="str">
-        <v>SKIN LIFE</v>
+        <v>ABSOLUE</v>
       </c>
       <c r="D54" t="str">
-        <v>NOCHE</v>
+        <v>AMPOLLA REPARADORA BIFASICA</v>
       </c>
       <c r="E54" t="str">
-        <v>50ml</v>
+        <v>12ml</v>
       </c>
       <c r="F54" t="str">
-        <v>35€</v>
+        <v>65€</v>
       </c>
     </row>
     <row r="55">
@@ -1495,19 +1495,19 @@
         <v>CREMAS</v>
       </c>
       <c r="B55" t="str">
-        <v>Lancome</v>
+        <v>Sensai</v>
       </c>
       <c r="C55" t="str">
-        <v>ABSOLUE</v>
+        <v>LIFT FOCUS ESSENCE</v>
       </c>
       <c r="D55" t="str">
-        <v>AMPOLLA REPARADORA BIFASICA</v>
+        <v>DÍA/NOCHE</v>
       </c>
       <c r="E55" t="str">
-        <v>12ml</v>
+        <v>40ml</v>
       </c>
       <c r="F55" t="str">
-        <v>65€</v>
+        <v>95€</v>
       </c>
     </row>
     <row r="56">
@@ -1515,13 +1515,13 @@
         <v>CREMAS</v>
       </c>
       <c r="B56" t="str">
-        <v>Lancome</v>
+        <v>Shiseido</v>
       </c>
       <c r="C56" t="str">
-        <v>ADVANCED GENIFIQUE NIGHT CREAM</v>
+        <v>BENEFICIANCE CONCENTRATED NECK</v>
       </c>
       <c r="D56" t="str">
-        <v>NOCHE</v>
+        <v>CREMA PARA CUELLO</v>
       </c>
       <c r="E56" t="str">
         <v>50ml</v>
@@ -1535,19 +1535,19 @@
         <v>CREMAS</v>
       </c>
       <c r="B57" t="str">
-        <v>Lancome</v>
+        <v>Shiseido</v>
       </c>
       <c r="C57" t="str">
-        <v>RENERGIE MULTI-GLOW</v>
+        <v>BENEFICIANCE OVERNIGHT WRINKLE RESISTING CREAM</v>
       </c>
       <c r="D57" t="str">
-        <v>DÍA</v>
+        <v>NOCHE</v>
       </c>
       <c r="E57" t="str">
         <v>50ml</v>
       </c>
       <c r="F57" t="str">
-        <v>55€</v>
+        <v>50€</v>
       </c>
     </row>
     <row r="58">
@@ -1555,13 +1555,13 @@
         <v>CREMAS</v>
       </c>
       <c r="B58" t="str">
-        <v>Lancome</v>
+        <v>Shiseido</v>
       </c>
       <c r="C58" t="str">
-        <v>RENERGIE SPF50 H.P.N. UVMUNE</v>
+        <v>BIO-PERFORMANCE ADVANCED</v>
       </c>
       <c r="D58" t="str">
-        <v>DÍA</v>
+        <v>DÍA/NOCHE</v>
       </c>
       <c r="E58" t="str">
         <v>50ml</v>
@@ -1572,122 +1572,122 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>CREMAS</v>
+        <v>SERUM</v>
       </c>
       <c r="B59" t="str">
-        <v>Sensai</v>
+        <v>Clarins</v>
       </c>
       <c r="C59" t="str">
-        <v>CELLULAR PERFORMANCE DEEP LIFT FILLER</v>
+        <v>SUPRA SERUM LIFT-REMODELANT</v>
       </c>
       <c r="D59" t="str">
-        <v>TRATAMIENTO LIFTING RELLENADOR</v>
+        <v/>
       </c>
       <c r="E59" t="str">
-        <v>20ml</v>
+        <v>30ml</v>
       </c>
       <c r="F59" t="str">
-        <v>70€</v>
+        <v>60€</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>CREMAS</v>
+        <v>SERUM</v>
       </c>
       <c r="B60" t="str">
-        <v>Sensai</v>
+        <v>Elizabeth Arden</v>
       </c>
       <c r="C60" t="str">
-        <v>LIFT FOCUS ESSENCE</v>
+        <v>PREVAGE ANTI-EDAD INTENSIVE SERUM</v>
       </c>
       <c r="D60" t="str">
-        <v>DÍA/NOCHE</v>
+        <v/>
       </c>
       <c r="E60" t="str">
-        <v>40ml</v>
+        <v>30ml</v>
       </c>
       <c r="F60" t="str">
-        <v>95€</v>
+        <v>75€</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>CREMAS</v>
+        <v>SERUM</v>
       </c>
       <c r="B61" t="str">
-        <v>Shiseido</v>
+        <v>Elizabeth Arden</v>
       </c>
       <c r="C61" t="str">
-        <v>BENEFICIANCE CONCENTRATED NECK</v>
+        <v>PREVAGE ANTI-EDAD 2.0 SERUM</v>
       </c>
       <c r="D61" t="str">
-        <v>CREMA PARA CUELLO</v>
+        <v/>
       </c>
       <c r="E61" t="str">
         <v>50ml</v>
       </c>
       <c r="F61" t="str">
-        <v>50€</v>
+        <v>80€</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>CREMAS</v>
+        <v>SERUM</v>
       </c>
       <c r="B62" t="str">
-        <v>Shiseido</v>
+        <v>Estee Lauder</v>
       </c>
       <c r="C62" t="str">
-        <v>BENEFICIANCE OVERNIGHT WRINKLE RESISTING CREAM</v>
+        <v>ADVANCED NIGHT REPAIR</v>
       </c>
       <c r="D62" t="str">
-        <v>NOCHE</v>
+        <v/>
       </c>
       <c r="E62" t="str">
-        <v>50ml</v>
+        <v>100ml</v>
       </c>
       <c r="F62" t="str">
-        <v>50€</v>
+        <v>85€</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>CREMAS</v>
+        <v>SERUM</v>
       </c>
       <c r="B63" t="str">
-        <v>Shiseido</v>
+        <v>L'Occitane</v>
       </c>
       <c r="C63" t="str">
-        <v>BIO-PERFORMANCE ADVANCED</v>
+        <v>SERUM IMMORTELLE DIVINE</v>
       </c>
       <c r="D63" t="str">
-        <v>DÍA/NOCHE</v>
+        <v/>
       </c>
       <c r="E63" t="str">
-        <v>50ml</v>
+        <v>30ml</v>
       </c>
       <c r="F63" t="str">
-        <v>55€</v>
+        <v>50€</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>CREMAS</v>
+        <v>SERUM</v>
       </c>
       <c r="B64" t="str">
-        <v>Shiseido</v>
+        <v>L'Occitane</v>
       </c>
       <c r="C64" t="str">
-        <v>VITAL PERFECTION CONCENTRATED SUPREME CREAM</v>
+        <v>SERUM IMMORTELLE RESET OVERNIGHT</v>
       </c>
       <c r="D64" t="str">
-        <v>DÍA/NOCHE</v>
+        <v/>
       </c>
       <c r="E64" t="str">
-        <v>50ml</v>
+        <v>30ml</v>
       </c>
       <c r="F64" t="str">
-        <v>60€</v>
+        <v>45€</v>
       </c>
     </row>
     <row r="65">
@@ -1695,19 +1695,19 @@
         <v>SERUM</v>
       </c>
       <c r="B65" t="str">
-        <v>Clarins</v>
+        <v>Lancome</v>
       </c>
       <c r="C65" t="str">
-        <v>SUPRA SERUM LIFT-REMODELANT</v>
+        <v>GENIFIQUE ULTÍMATE SERUM</v>
       </c>
       <c r="D65" t="str">
         <v/>
       </c>
       <c r="E65" t="str">
-        <v>30ml</v>
+        <v>50ml</v>
       </c>
       <c r="F65" t="str">
-        <v>60€</v>
+        <v>50€</v>
       </c>
     </row>
     <row r="66">
@@ -1715,19 +1715,19 @@
         <v>SERUM</v>
       </c>
       <c r="B66" t="str">
-        <v>Elizabeth Arden</v>
+        <v>Shiseido</v>
       </c>
       <c r="C66" t="str">
-        <v>PREVAGE ANTI-EDAD INTENSIVE SERUM</v>
+        <v>FUTURE SOLUTION LX INTENSIVE FIRMING CONTOUR</v>
       </c>
       <c r="D66" t="str">
         <v/>
       </c>
       <c r="E66" t="str">
-        <v>30ml</v>
+        <v>50ml</v>
       </c>
       <c r="F66" t="str">
-        <v>75€</v>
+        <v>140€</v>
       </c>
     </row>
     <row r="67">
@@ -1735,56 +1735,56 @@
         <v>SERUM</v>
       </c>
       <c r="B67" t="str">
-        <v>Elizabeth Arden</v>
+        <v>Shiseido</v>
       </c>
       <c r="C67" t="str">
-        <v>PREVAGE ANTI-EDAD 2.0 SERUM</v>
+        <v>FUTURE SOLUTION LX LEGENDARY ENMAI ULTÍMATE LUMINANCE</v>
       </c>
       <c r="D67" t="str">
         <v/>
       </c>
       <c r="E67" t="str">
-        <v>50ml</v>
+        <v>30ml</v>
       </c>
       <c r="F67" t="str">
-        <v>80€</v>
+        <v>140€</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>SERUM</v>
+        <v>CONTORNO DE OJOS</v>
       </c>
       <c r="B68" t="str">
-        <v>Estee Lauder</v>
+        <v>Elizabeth Arden</v>
       </c>
       <c r="C68" t="str">
-        <v>ADVANCED NIGHT REPAIR</v>
+        <v>PREVAGE ANTI-EDAD SPF15 EYE</v>
       </c>
       <c r="D68" t="str">
         <v/>
       </c>
       <c r="E68" t="str">
-        <v>100ml</v>
+        <v>15ml</v>
       </c>
       <c r="F68" t="str">
-        <v>85€</v>
+        <v>50€</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>SERUM</v>
+        <v>CONTORNO DE OJOS</v>
       </c>
       <c r="B69" t="str">
-        <v>L'Occitane</v>
+        <v>Elizabeth Arden</v>
       </c>
       <c r="C69" t="str">
-        <v>SERUM IMMORTELLE DIVINE</v>
+        <v>PREVAGE ANTI-EDAD EYE SERUM 2.0</v>
       </c>
       <c r="D69" t="str">
         <v/>
       </c>
       <c r="E69" t="str">
-        <v>30ml</v>
+        <v>20ml</v>
       </c>
       <c r="F69" t="str">
         <v>50€</v>
@@ -1792,159 +1792,159 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>SERUM</v>
+        <v>CONTORNO DE OJOS</v>
       </c>
       <c r="B70" t="str">
-        <v>L'Occitane</v>
+        <v>Juvena</v>
       </c>
       <c r="C70" t="str">
-        <v>SERUM IMMORTELLE RESET OVERNIGHT</v>
+        <v>EYE LIFTING SERUM</v>
       </c>
       <c r="D70" t="str">
         <v/>
       </c>
       <c r="E70" t="str">
-        <v>30ml</v>
+        <v>15ml</v>
       </c>
       <c r="F70" t="str">
-        <v>45€</v>
+        <v>55€</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>SERUM</v>
+        <v>CONTORNO DE OJOS</v>
       </c>
       <c r="B71" t="str">
-        <v>Lancome</v>
+        <v>Juvena</v>
       </c>
       <c r="C71" t="str">
-        <v>GENIFIQUE ULTÍMATE SERUM</v>
+        <v>MIRACLE EYE CREAM</v>
       </c>
       <c r="D71" t="str">
         <v/>
       </c>
       <c r="E71" t="str">
-        <v>50ml</v>
+        <v>20ml</v>
       </c>
       <c r="F71" t="str">
-        <v>50€</v>
+        <v>35€</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>SERUM</v>
+        <v>CONTORNO DE OJOS</v>
       </c>
       <c r="B72" t="str">
-        <v>Lancome</v>
+        <v>L’Occitane</v>
       </c>
       <c r="C72" t="str">
-        <v>RENERGIE H.C.F TRIPLE SERUM RETINOL</v>
+        <v>IMMORTELLE DIVINE EYE BALM</v>
       </c>
       <c r="D72" t="str">
         <v/>
       </c>
       <c r="E72" t="str">
-        <v>50ml</v>
+        <v>15ml</v>
       </c>
       <c r="F72" t="str">
-        <v>60€</v>
+        <v>45€</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>SERUM</v>
+        <v>CONTORNO DE OJOS</v>
       </c>
       <c r="B73" t="str">
         <v>Lancome</v>
       </c>
       <c r="C73" t="str">
-        <v>RENERGIE C.R.X TRIPLE SERUM RETINOL</v>
+        <v>RENERGIE YEUX</v>
       </c>
       <c r="D73" t="str">
         <v/>
       </c>
       <c r="E73" t="str">
-        <v>50ml</v>
+        <v>15ml</v>
       </c>
       <c r="F73" t="str">
-        <v>70€</v>
+        <v>40€</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>SERUM</v>
+        <v>CONTORNO DE OJOS</v>
       </c>
       <c r="B74" t="str">
         <v>Shiseido</v>
       </c>
       <c r="C74" t="str">
-        <v>FUTURE SOLUTION LX INTENSIVE FIRMING CONTOUR</v>
+        <v>FUTURE SOLUTION LX EYE AND LIP</v>
       </c>
       <c r="D74" t="str">
         <v/>
       </c>
       <c r="E74" t="str">
-        <v>50ml</v>
+        <v>17ml</v>
       </c>
       <c r="F74" t="str">
-        <v>140€</v>
+        <v>80€</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>SERUM</v>
+        <v>MASCARILLA</v>
       </c>
       <c r="B75" t="str">
-        <v>Shiseido</v>
+        <v>Biotherm</v>
       </c>
       <c r="C75" t="str">
-        <v>FUTURE SOLUTION LX LEGENDARY ENMAI ULTÍMATE LUMINANCE</v>
+        <v>ACQUASOURCE EVERPLUMP NIGHT</v>
       </c>
       <c r="D75" t="str">
-        <v/>
+        <v>Todo tipo de piel</v>
       </c>
       <c r="E75" t="str">
-        <v>30ml</v>
+        <v>75ml</v>
       </c>
       <c r="F75" t="str">
-        <v>140€</v>
+        <v>40€</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>CONTORNO DE OJOS</v>
+        <v>MASCARILLA</v>
       </c>
       <c r="B76" t="str">
-        <v>Elizabeth Arden</v>
+        <v>Clarins</v>
       </c>
       <c r="C76" t="str">
-        <v>PREVAGE ANTI-EDAD SPF15 EYE</v>
+        <v>SOS CONFORT</v>
       </c>
       <c r="D76" t="str">
         <v/>
       </c>
       <c r="E76" t="str">
-        <v>15ml</v>
+        <v>75ml</v>
       </c>
       <c r="F76" t="str">
-        <v>50€</v>
+        <v>30€</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>CONTORNO DE OJOS</v>
+        <v>MASCARILLA</v>
       </c>
       <c r="B77" t="str">
-        <v>Elizabeth Arden</v>
+        <v>Sensai</v>
       </c>
       <c r="C77" t="str">
-        <v>PREVAGE ANTI-EDAD EYE SERUM 2.0</v>
+        <v>SILKY BRONZE SOOTHING AFTER SUN REPAIR MASK</v>
       </c>
       <c r="D77" t="str">
         <v/>
       </c>
       <c r="E77" t="str">
-        <v>20ml</v>
+        <v>60ml</v>
       </c>
       <c r="F77" t="str">
         <v>50€</v>
@@ -1952,202 +1952,202 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>CONTORNO DE OJOS</v>
+        <v>OTROS</v>
       </c>
       <c r="B78" t="str">
-        <v>Juvena</v>
+        <v>Clarins</v>
       </c>
       <c r="C78" t="str">
-        <v>EYE LIFTING SERUM</v>
+        <v>BAUME-HUILE HYDRATANT TONIC</v>
       </c>
       <c r="D78" t="str">
-        <v/>
+        <v>Bálsamo corporal hidratante</v>
       </c>
       <c r="E78" t="str">
-        <v>15ml</v>
+        <v>200ml</v>
       </c>
       <c r="F78" t="str">
-        <v>55€</v>
+        <v>28€</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>CONTORNO DE OJOS</v>
+        <v>OTROS</v>
       </c>
       <c r="B79" t="str">
-        <v>Juvena</v>
+        <v>Clarins</v>
       </c>
       <c r="C79" t="str">
-        <v>MIRACLE EYE CREAM</v>
+        <v>EAU DYNAMISANTE</v>
       </c>
       <c r="D79" t="str">
-        <v/>
+        <v>Leche corporal Hidratante</v>
       </c>
       <c r="E79" t="str">
-        <v>20ml</v>
+        <v>200ml</v>
       </c>
       <c r="F79" t="str">
-        <v>35€</v>
+        <v>25€</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>CONTORNO DE OJOS</v>
+        <v>OTROS</v>
       </c>
       <c r="B80" t="str">
-        <v>L’Occitane</v>
+        <v>Clarins</v>
       </c>
       <c r="C80" t="str">
-        <v>IMMORTELLE DIVINE EYE BALM</v>
+        <v>GOMMAGE EXFOLIANT</v>
       </c>
       <c r="D80" t="str">
-        <v/>
+        <v>EXFOLIANTE CORPORAL HIDRATANTE Y REAFIRMANTE</v>
       </c>
       <c r="E80" t="str">
-        <v>15ml</v>
+        <v>200ml</v>
       </c>
       <c r="F80" t="str">
-        <v>45€</v>
+        <v>28€</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>CONTORNO DE OJOS</v>
+        <v>OTROS</v>
       </c>
       <c r="B81" t="str">
-        <v>Lancome</v>
+        <v>Clarins</v>
       </c>
       <c r="C81" t="str">
-        <v>ABSOLUE YEUX</v>
+        <v>HUILE RELAX</v>
       </c>
       <c r="D81" t="str">
-        <v/>
+        <v>Aceite Calmante</v>
       </c>
       <c r="E81" t="str">
-        <v>20ml</v>
+        <v>100ml</v>
       </c>
       <c r="F81" t="str">
-        <v>70€</v>
+        <v>35€</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>CONTORNO DE OJOS</v>
+        <v>OTROS</v>
       </c>
       <c r="B82" t="str">
-        <v>Lancome</v>
+        <v>Clarins</v>
       </c>
       <c r="C82" t="str">
-        <v>GENIFIQUE ULTÍMATE YEUX</v>
+        <v>HUILE TONIC</v>
       </c>
       <c r="D82" t="str">
-        <v/>
+        <v>Aceite Tonificante</v>
       </c>
       <c r="E82" t="str">
-        <v>20ml</v>
+        <v>100ml</v>
       </c>
       <c r="F82" t="str">
-        <v>40€</v>
+        <v>35€</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>CONTORNO DE OJOS</v>
+        <v>OTROS</v>
       </c>
       <c r="B83" t="str">
-        <v>Lancome</v>
+        <v>Clarins</v>
       </c>
       <c r="C83" t="str">
-        <v>RENERGIE YEUX</v>
+        <v>MASVELT ADVANCED</v>
       </c>
       <c r="D83" t="str">
-        <v/>
+        <v>Crema Moldeadora figura</v>
       </c>
       <c r="E83" t="str">
-        <v>15ml</v>
+        <v>200g</v>
       </c>
       <c r="F83" t="str">
-        <v>40€</v>
+        <v>35€</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>CONTORNO DE OJOS</v>
+        <v>OTROS</v>
       </c>
       <c r="B84" t="str">
-        <v>Shiseido</v>
+        <v>Clarins</v>
       </c>
       <c r="C84" t="str">
-        <v>FUTURE SOLUTION LX EYE AND LIP</v>
+        <v>MULTI-INTENSIVE Vientre y Cintura</v>
       </c>
       <c r="D84" t="str">
         <v/>
       </c>
       <c r="E84" t="str">
-        <v>17ml</v>
+        <v>200ml</v>
       </c>
       <c r="F84" t="str">
-        <v>80€</v>
+        <v>40€</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>MASCARILLA</v>
+        <v>OTROS</v>
       </c>
       <c r="B85" t="str">
-        <v>Biotherm</v>
+        <v>Clarins</v>
       </c>
       <c r="C85" t="str">
-        <v>ACQUASOURCE EVERPLUMP NIGHT</v>
+        <v>BODY FIT ACTIVE</v>
       </c>
       <c r="D85" t="str">
-        <v>Todo tipo de piel</v>
+        <v/>
       </c>
       <c r="E85" t="str">
-        <v>75ml</v>
+        <v>200ml</v>
       </c>
       <c r="F85" t="str">
-        <v>40€</v>
+        <v>35€</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>MASCARILLA</v>
+        <v>OTROS</v>
       </c>
       <c r="B86" t="str">
         <v>Clarins</v>
       </c>
       <c r="C86" t="str">
-        <v>SOS CONFORT</v>
+        <v>BODY FIRMING CREMA</v>
       </c>
       <c r="D86" t="str">
         <v/>
       </c>
       <c r="E86" t="str">
-        <v>75ml</v>
+        <v>200ml</v>
       </c>
       <c r="F86" t="str">
-        <v>30€</v>
+        <v>35€</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>MASCARILLA</v>
+        <v>OTROS</v>
       </c>
       <c r="B87" t="str">
-        <v>Sensai</v>
+        <v>Clarins</v>
       </c>
       <c r="C87" t="str">
-        <v>SILKY BRONZE SOOTHING AFTER SUN REPAIR MASK</v>
+        <v>BODY FIRMING GEL</v>
       </c>
       <c r="D87" t="str">
         <v/>
       </c>
       <c r="E87" t="str">
-        <v>60ml</v>
+        <v>200ml</v>
       </c>
       <c r="F87" t="str">
-        <v>50€</v>
+        <v>35€</v>
       </c>
     </row>
     <row r="88">
@@ -2158,16 +2158,16 @@
         <v>Clarins</v>
       </c>
       <c r="C88" t="str">
-        <v>BAUME-HUILE HYDRATANT TONIC</v>
+        <v>BODY PARTNER</v>
       </c>
       <c r="D88" t="str">
-        <v>Bálsamo corporal hidratante</v>
+        <v>Antiestrias</v>
       </c>
       <c r="E88" t="str">
-        <v>200ml</v>
+        <v>175ml</v>
       </c>
       <c r="F88" t="str">
-        <v>28€</v>
+        <v>35€</v>
       </c>
     </row>
     <row r="89">
@@ -2175,19 +2175,19 @@
         <v>OTROS</v>
       </c>
       <c r="B89" t="str">
-        <v>Clarins</v>
+        <v>Hugo Boss</v>
       </c>
       <c r="C89" t="str">
-        <v>DEMAQUILLANT DOUCEUR YEUX</v>
+        <v>JOUR</v>
       </c>
       <c r="D89" t="str">
-        <v>Desmaquillante Ojos</v>
+        <v>BODY MILK</v>
       </c>
       <c r="E89" t="str">
-        <v>125ml</v>
+        <v>200ml</v>
       </c>
       <c r="F89" t="str">
-        <v>22€</v>
+        <v>28€</v>
       </c>
     </row>
     <row r="90">
@@ -2195,19 +2195,19 @@
         <v>OTROS</v>
       </c>
       <c r="B90" t="str">
-        <v>Clarins</v>
+        <v>Mary Kay</v>
       </c>
       <c r="C90" t="str">
-        <v>AGUA MICELAR DESMAQUILLANTE</v>
+        <v>LIMPIADORA 4 en 1 TIMEWISE</v>
       </c>
       <c r="D90" t="str">
-        <v>Piel Sensible</v>
+        <v/>
       </c>
       <c r="E90" t="str">
-        <v>200ml</v>
+        <v>127g</v>
       </c>
       <c r="F90" t="str">
-        <v>22€</v>
+        <v>25€</v>
       </c>
     </row>
     <row r="91">
@@ -2215,16 +2215,16 @@
         <v>OTROS</v>
       </c>
       <c r="B91" t="str">
-        <v>Clarins</v>
+        <v>Mary Kay</v>
       </c>
       <c r="C91" t="str">
-        <v>EAU DYNAMISANTE</v>
+        <v>LIMPIADORA EN ESPUMA TIMEWISE</v>
       </c>
       <c r="D91" t="str">
-        <v>Leche corporal Hidratante</v>
+        <v/>
       </c>
       <c r="E91" t="str">
-        <v>200ml</v>
+        <v>137g</v>
       </c>
       <c r="F91" t="str">
         <v>25€</v>
@@ -2235,539 +2235,539 @@
         <v>OTROS</v>
       </c>
       <c r="B92" t="str">
-        <v>Clarins</v>
+        <v>Mary Kay</v>
       </c>
       <c r="C92" t="str">
-        <v>GOMMAGE EXFOLIANT</v>
+        <v>LOCIÓN TONIFICANTE TIMEWISE</v>
       </c>
       <c r="D92" t="str">
-        <v>EXFOLIANTE CORPORAL HIDRATANTE Y REAFIRMANTE</v>
+        <v/>
       </c>
       <c r="E92" t="str">
-        <v>200ml</v>
+        <v>236ml</v>
       </c>
       <c r="F92" t="str">
-        <v>28€</v>
+        <v>25€</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>OTROS</v>
+        <v>CREMAS SOLARES</v>
       </c>
       <c r="B93" t="str">
         <v>Clarins</v>
       </c>
       <c r="C93" t="str">
-        <v>HUILE RELAX</v>
+        <v>BRUMA SOLAR EMBELLESEDORA SPF50</v>
       </c>
       <c r="D93" t="str">
-        <v>Aceite Calmante</v>
+        <v>CUERPO</v>
       </c>
       <c r="E93" t="str">
-        <v>100ml</v>
+        <v>150ml</v>
       </c>
       <c r="F93" t="str">
-        <v>35€</v>
+        <v>25€</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>OTROS</v>
+        <v>CREMAS SOLARES</v>
       </c>
       <c r="B94" t="str">
         <v>Clarins</v>
       </c>
       <c r="C94" t="str">
-        <v>HUILE TONIC</v>
+        <v>CREMA SOLAR ANTIEDAD SPF30</v>
       </c>
       <c r="D94" t="str">
-        <v>Aceite Tonificante</v>
+        <v>CUERPO</v>
       </c>
       <c r="E94" t="str">
-        <v>100ml</v>
+        <v>150ml</v>
       </c>
       <c r="F94" t="str">
-        <v>35€</v>
+        <v>25€</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>OTROS</v>
+        <v>CREMAS SOLARES</v>
       </c>
       <c r="B95" t="str">
-        <v>Clarins</v>
+        <v>Mary Kay</v>
       </c>
       <c r="C95" t="str">
-        <v>MASVELT ADVANCED</v>
+        <v>PROTECTOR SOLAR FACIAL MINERAL SPF30</v>
       </c>
       <c r="D95" t="str">
-        <v>Crema Moldeadora figura</v>
+        <v/>
       </c>
       <c r="E95" t="str">
-        <v>200g</v>
+        <v>48g</v>
       </c>
       <c r="F95" t="str">
-        <v>35€</v>
+        <v>25€</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>OTROS</v>
+        <v>CREMAS SOLARES</v>
       </c>
       <c r="B96" t="str">
-        <v>Clarins</v>
+        <v>Sensai</v>
       </c>
       <c r="C96" t="str">
-        <v>MULTI-INTENSIVE Vientre y Cintura</v>
+        <v>SILKY BRONZE SELF TANNING</v>
       </c>
       <c r="D96" t="str">
-        <v/>
+        <v>Gel Autobronceador Facial</v>
       </c>
       <c r="E96" t="str">
-        <v>200ml</v>
+        <v>50ml</v>
       </c>
       <c r="F96" t="str">
-        <v>40€</v>
+        <v>45€</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>OTROS</v>
+        <v>CREMAS SOLARES</v>
       </c>
       <c r="B97" t="str">
-        <v>Clarins</v>
+        <v>Sensai</v>
       </c>
       <c r="C97" t="str">
-        <v>BODY FIT ACTIVE</v>
+        <v>SILKY BRONZE SUN PROTECTIVE CREAM SPF10</v>
       </c>
       <c r="D97" t="str">
-        <v/>
+        <v>Protector Facial Antienvejecimiento</v>
       </c>
       <c r="E97" t="str">
-        <v>200ml</v>
+        <v>50ml</v>
       </c>
       <c r="F97" t="str">
-        <v>35€</v>
+        <v>50€</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>OTROS</v>
+        <v>CREMAS SOLARES</v>
       </c>
       <c r="B98" t="str">
-        <v>Clarins</v>
+        <v>Sensai</v>
       </c>
       <c r="C98" t="str">
-        <v>BODY FIRMING CREMA</v>
+        <v>SILKY BRONZE SUN PROTECTIVE CREAM SPF20</v>
       </c>
       <c r="D98" t="str">
-        <v/>
+        <v>Protector Facial Antienvejecimiento</v>
       </c>
       <c r="E98" t="str">
-        <v>200ml</v>
+        <v>50ml</v>
       </c>
       <c r="F98" t="str">
-        <v>35€</v>
+        <v>50€</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>OTROS</v>
+        <v>CREMAS SOLARES</v>
       </c>
       <c r="B99" t="str">
-        <v>Clarins</v>
+        <v>Sensai</v>
       </c>
       <c r="C99" t="str">
-        <v>BODY FIRMING GEL</v>
+        <v>SILKY BRONZE SUN PROTECTIVE CREAM FOR BODY SPF30</v>
       </c>
       <c r="D99" t="str">
-        <v/>
+        <v>Protección Corporal</v>
       </c>
       <c r="E99" t="str">
-        <v>200ml</v>
+        <v>150ml</v>
       </c>
       <c r="F99" t="str">
-        <v>35€</v>
+        <v>55€</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>OTROS</v>
+        <v>CREMAS SOLARES</v>
       </c>
       <c r="B100" t="str">
-        <v>Clarins</v>
+        <v>Sensai</v>
       </c>
       <c r="C100" t="str">
-        <v>BODY PARTNER</v>
+        <v>SILKY BRONZE CELLULAR PROTECTIVE CREAM SPF15</v>
       </c>
       <c r="D100" t="str">
-        <v>Antiestrias</v>
+        <v>Protección Facial</v>
       </c>
       <c r="E100" t="str">
-        <v>175ml</v>
+        <v>50ml</v>
       </c>
       <c r="F100" t="str">
-        <v>35€</v>
+        <v>55€</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>OTROS</v>
+        <v>CREMAS SOLARES</v>
       </c>
       <c r="B101" t="str">
-        <v>Eyeko</v>
+        <v>Sensai</v>
       </c>
       <c r="C101" t="str">
-        <v>EYELINER BLACK MÁGIC LIQUID</v>
+        <v>SILKY BRONZE SOOTHING  EMULSIÓN</v>
       </c>
       <c r="D101" t="str">
-        <v/>
+        <v>AFTER SUN</v>
       </c>
       <c r="E101" t="str">
-        <v/>
+        <v>150ml</v>
       </c>
       <c r="F101" t="str">
-        <v>18€</v>
+        <v>50€</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>OTROS</v>
+        <v>SISLEY PARA TU CABELLO</v>
       </c>
       <c r="B102" t="str">
-        <v>Hugo Boss</v>
+        <v>Sisley</v>
       </c>
       <c r="C102" t="str">
-        <v>JOUR</v>
+        <v>LA CURE ANTIPELLICULAIRE APAISANTE</v>
       </c>
       <c r="D102" t="str">
-        <v>BODY MILK</v>
+        <v>Serum Anti caspa</v>
       </c>
       <c r="E102" t="str">
-        <v>200ml</v>
+        <v>60ml</v>
       </c>
       <c r="F102" t="str">
-        <v>28€</v>
+        <v>50€</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>OTROS</v>
+        <v>SISLEY PARA TU CABELLO</v>
       </c>
       <c r="B103" t="str">
-        <v>Mary Kay</v>
+        <v>Sisley Hair</v>
       </c>
       <c r="C103" t="str">
-        <v>LIMPIADORA 4 en 1 TIMEWISE</v>
+        <v>LE SPRAY FIXANT INVISIBLE</v>
       </c>
       <c r="D103" t="str">
-        <v/>
+        <v>LACA</v>
       </c>
       <c r="E103" t="str">
-        <v>127g</v>
+        <v>250ml</v>
       </c>
       <c r="F103" t="str">
-        <v>25€</v>
+        <v>45€</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>OTROS</v>
+        <v>SISLEY PARA TU CABELLO</v>
       </c>
       <c r="B104" t="str">
-        <v>Mary Kay</v>
+        <v>Sisley Hair</v>
       </c>
       <c r="C104" t="str">
-        <v>LIMPIADORA EN ESPUMA TIMEWISE</v>
+        <v>MASQUE PURIFIANT AVANT-SHAMPOO</v>
       </c>
       <c r="D104" t="str">
-        <v/>
+        <v>Máscarilla</v>
       </c>
       <c r="E104" t="str">
-        <v>137g</v>
+        <v>200ml</v>
       </c>
       <c r="F104" t="str">
-        <v>25€</v>
+        <v>45€</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>OTROS</v>
+        <v>SISLEY PARA TU CABELLO</v>
       </c>
       <c r="B105" t="str">
-        <v>Mary Kay</v>
+        <v>Sisley Hair</v>
       </c>
       <c r="C105" t="str">
-        <v>LOCIÓN TONIFICANTE TIMEWISE</v>
+        <v>MASQUE SOIN SUBLIMATEUR DE COULEUR</v>
       </c>
       <c r="D105" t="str">
-        <v/>
+        <v>Máscarilla</v>
       </c>
       <c r="E105" t="str">
-        <v>236ml</v>
+        <v>200ml</v>
       </c>
       <c r="F105" t="str">
-        <v>25€</v>
+        <v>45€</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>CREMAS SOLARES</v>
+        <v>HOMBRE</v>
       </c>
       <c r="B106" t="str">
-        <v>Clarins</v>
+        <v>Biotherm Homme</v>
       </c>
       <c r="C106" t="str">
-        <v>BRUMA SOLAR EMBELLESEDORA SPF50</v>
+        <v>FORCÉ SUPREME ANTI- EDAD</v>
       </c>
       <c r="D106" t="str">
-        <v>CUERPO</v>
+        <v>cuidado integral + Potenciador con Ácido Ferulico</v>
       </c>
       <c r="E106" t="str">
-        <v>150ml</v>
+        <v>37ml</v>
       </c>
       <c r="F106" t="str">
-        <v>25€</v>
+        <v>45€</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>CREMAS SOLARES</v>
+        <v>HOMBRE</v>
       </c>
       <c r="B107" t="str">
-        <v>Clarins</v>
+        <v>Biotherm Homme</v>
       </c>
       <c r="C107" t="str">
-        <v>CREMA SOLAR ANTIEDAD SPF30</v>
+        <v>FORCE SUPREME REBOOT SHOT FACE &amp; EYE</v>
       </c>
       <c r="D107" t="str">
-        <v>CUERPO</v>
+        <v>SERUM</v>
       </c>
       <c r="E107" t="str">
-        <v>150ml</v>
+        <v>30ml</v>
       </c>
       <c r="F107" t="str">
-        <v>25€</v>
+        <v>40€</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>CREMAS SOLARES</v>
+        <v>HOMBRE</v>
       </c>
       <c r="B108" t="str">
-        <v>Mary Kay</v>
+        <v>Biotherm</v>
       </c>
       <c r="C108" t="str">
-        <v>PROTECTOR SOLAR FACIAL MINERAL SPF30</v>
+        <v>Homme</v>
       </c>
       <c r="D108" t="str">
-        <v/>
+        <v>Gel Espuma Afeitar</v>
       </c>
       <c r="E108" t="str">
-        <v>48g</v>
+        <v>150ml</v>
       </c>
       <c r="F108" t="str">
-        <v>25€</v>
+        <v>18€</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>CREMAS SOLARES</v>
+        <v>HOMBRE</v>
       </c>
       <c r="B109" t="str">
-        <v>Sensai</v>
+        <v>Calvin Klein</v>
       </c>
       <c r="C109" t="str">
-        <v>SILKY BRONZE SELF TANNING</v>
+        <v>ALL OVER BODY SPRAY</v>
       </c>
       <c r="D109" t="str">
-        <v>Gel Autobronceador Facial</v>
+        <v>CUERPO</v>
       </c>
       <c r="E109" t="str">
-        <v>50ml</v>
+        <v>200ml</v>
       </c>
       <c r="F109" t="str">
-        <v>45€</v>
+        <v>20€</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>CREMAS SOLARES</v>
+        <v>HOMBRE</v>
       </c>
       <c r="B110" t="str">
-        <v>Sensai</v>
+        <v>Clarins</v>
       </c>
       <c r="C110" t="str">
-        <v>SILKY BRONZE SUN PROTECTIVE CREAM SPF10</v>
+        <v>ANTI-RIDES FERMETE</v>
       </c>
       <c r="D110" t="str">
-        <v>Protector Facial Antienvejecimiento</v>
+        <v>PIEL SECAS, Crema Anti-Arrugas</v>
       </c>
       <c r="E110" t="str">
         <v>50ml</v>
       </c>
       <c r="F110" t="str">
-        <v>50€</v>
+        <v>40€</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>CREMAS SOLARES</v>
+        <v>HOMBRE</v>
       </c>
       <c r="B111" t="str">
-        <v>Sensai</v>
+        <v>Clarins</v>
       </c>
       <c r="C111" t="str">
-        <v>SILKY BRONZE SUN PROTECTIVE CREAM SPF20</v>
+        <v>BAUME SUPER HYDRATANT</v>
       </c>
       <c r="D111" t="str">
-        <v>Protector Facial Antienvejecimiento</v>
+        <v/>
       </c>
       <c r="E111" t="str">
         <v>50ml</v>
       </c>
       <c r="F111" t="str">
-        <v>50€</v>
+        <v>30€</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>CREMAS SOLARES</v>
+        <v>HOMBRE</v>
       </c>
       <c r="B112" t="str">
-        <v>Sensai</v>
+        <v>Clarins</v>
       </c>
       <c r="C112" t="str">
-        <v>SILKY BRONZE SUN PROTECTIVE CREAM FOR BODY SPF30</v>
+        <v>GEL ENERGISANT</v>
       </c>
       <c r="D112" t="str">
-        <v>Protección Corporal</v>
+        <v/>
       </c>
       <c r="E112" t="str">
-        <v>150ml</v>
+        <v>50ml</v>
       </c>
       <c r="F112" t="str">
-        <v>55€</v>
+        <v>32€</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>CREMAS SOLARES</v>
+        <v>HOMBRE</v>
       </c>
       <c r="B113" t="str">
-        <v>Sensai</v>
+        <v>Clarins</v>
       </c>
       <c r="C113" t="str">
-        <v>SILKY BRONZE CELLULAR PROTECTIVE CREAM SPF15</v>
+        <v>GEL SUPER HYDRATANT</v>
       </c>
       <c r="D113" t="str">
-        <v>Protección Facial</v>
+        <v/>
       </c>
       <c r="E113" t="str">
         <v>50ml</v>
       </c>
       <c r="F113" t="str">
-        <v>55€</v>
+        <v>30€</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>CREMAS SOLARES</v>
+        <v>HOMBRE</v>
       </c>
       <c r="B114" t="str">
-        <v>Sensai</v>
+        <v>Clarins</v>
       </c>
       <c r="C114" t="str">
-        <v>SILKY BRONZE SOOTHING  EMULSIÓN</v>
+        <v>GEL ENERGISANT YEUX</v>
       </c>
       <c r="D114" t="str">
-        <v>AFTER SUN</v>
+        <v>CONTORNO DE OJOS</v>
       </c>
       <c r="E114" t="str">
-        <v>150ml</v>
+        <v>15ml</v>
       </c>
       <c r="F114" t="str">
-        <v>50€</v>
+        <v>28€</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>SISLEY PARA TU CABELLO</v>
+        <v>HOMBRE</v>
       </c>
       <c r="B115" t="str">
-        <v>Sisley</v>
+        <v>Clarins</v>
       </c>
       <c r="C115" t="str">
-        <v>LA CURE ANTIPELLICULAIRE APAISANTE</v>
+        <v>GEL APAISANT</v>
       </c>
       <c r="D115" t="str">
-        <v>Serum Anti caspa</v>
+        <v>AFTER SHAVE</v>
       </c>
       <c r="E115" t="str">
-        <v>60ml</v>
+        <v>75ml</v>
       </c>
       <c r="F115" t="str">
-        <v>50€</v>
+        <v>25€</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>SISLEY PARA TU CABELLO</v>
+        <v>HOMBRE</v>
       </c>
       <c r="B116" t="str">
-        <v>Sisley Hair</v>
+        <v>Clarins</v>
       </c>
       <c r="C116" t="str">
-        <v>LE SPRAY FIXANT INVISIBLE</v>
+        <v>HUILE RASSAGE + BARBE</v>
       </c>
       <c r="D116" t="str">
-        <v>LACA</v>
+        <v>Aceite Para AFEITADO</v>
       </c>
       <c r="E116" t="str">
-        <v>250ml</v>
+        <v>30ml</v>
       </c>
       <c r="F116" t="str">
-        <v>45€</v>
+        <v>25€</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>SISLEY PARA TU CABELLO</v>
+        <v>HOMBRE</v>
       </c>
       <c r="B117" t="str">
-        <v>Sisley Hair</v>
+        <v>Claríns</v>
       </c>
       <c r="C117" t="str">
-        <v>MASQUE PURIFIANT AVANT-SHAMPOO</v>
+        <v>GEL MOUSSANT RASAGE IDEAL</v>
       </c>
       <c r="D117" t="str">
-        <v>Máscarilla</v>
+        <v>Gel Espumoso</v>
       </c>
       <c r="E117" t="str">
-        <v>200ml</v>
+        <v>150ml</v>
       </c>
       <c r="F117" t="str">
-        <v>45€</v>
+        <v>20€</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>SISLEY PARA TU CABELLO</v>
+        <v>HOMBRE</v>
       </c>
       <c r="B118" t="str">
-        <v>Sisley Hair</v>
+        <v>Claríns</v>
       </c>
       <c r="C118" t="str">
-        <v>MASQUE SOIN SUBLIMATEUR DE COULEUR</v>
+        <v>GEL APAISANT</v>
       </c>
       <c r="D118" t="str">
-        <v>Máscarilla</v>
+        <v>AFTER SHAVE</v>
       </c>
       <c r="E118" t="str">
-        <v>200ml</v>
+        <v>75ml</v>
       </c>
       <c r="F118" t="str">
-        <v>45€</v>
+        <v>25€</v>
       </c>
     </row>
     <row r="119">
@@ -2775,19 +2775,19 @@
         <v>HOMBRE</v>
       </c>
       <c r="B119" t="str">
-        <v>Biotherm Homme</v>
+        <v>Clarins</v>
       </c>
       <c r="C119" t="str">
-        <v>FORCE SUPREME REBOOT SHOT FACE &amp; EYE</v>
+        <v>LOTION APAISANTE</v>
       </c>
       <c r="D119" t="str">
-        <v>SERUM</v>
+        <v>AFTER SHAVE</v>
       </c>
       <c r="E119" t="str">
-        <v>30ml</v>
+        <v>100ml</v>
       </c>
       <c r="F119" t="str">
-        <v>40€</v>
+        <v>25€</v>
       </c>
     </row>
     <row r="120">
@@ -2795,19 +2795,19 @@
         <v>HOMBRE</v>
       </c>
       <c r="B120" t="str">
-        <v>Biotherm</v>
+        <v>Clarins</v>
       </c>
       <c r="C120" t="str">
-        <v>Homme</v>
+        <v>NETTOYANT EXFOLIANT</v>
       </c>
       <c r="D120" t="str">
-        <v>Gel Espuma Afeitar</v>
+        <v>Gel exfoliante y Limpiador</v>
       </c>
       <c r="E120" t="str">
-        <v>150ml</v>
+        <v>125ml</v>
       </c>
       <c r="F120" t="str">
-        <v>18€</v>
+        <v>25€</v>
       </c>
     </row>
     <row r="121">
@@ -2815,19 +2815,19 @@
         <v>HOMBRE</v>
       </c>
       <c r="B121" t="str">
-        <v>Calvin Klein</v>
+        <v>Clarins</v>
       </c>
       <c r="C121" t="str">
-        <v>ALL OVER BODY SPRAY</v>
+        <v>NETTOYANT VISAGE ACTIVE</v>
       </c>
       <c r="D121" t="str">
-        <v>CUERPO</v>
+        <v>Espuma Limpiadora Facial</v>
       </c>
       <c r="E121" t="str">
-        <v>200ml</v>
+        <v>125ml</v>
       </c>
       <c r="F121" t="str">
-        <v>20€</v>
+        <v>22€</v>
       </c>
     </row>
     <row r="122">
@@ -2838,16 +2838,16 @@
         <v>Clarins</v>
       </c>
       <c r="C122" t="str">
-        <v>ANTI-RIDES FERMETE</v>
+        <v>SHAMPOO &amp; SHOWER</v>
       </c>
       <c r="D122" t="str">
-        <v>PIEL SECAS, Crema Anti- Arrugas</v>
+        <v/>
       </c>
       <c r="E122" t="str">
-        <v>50ml</v>
+        <v>200ml</v>
       </c>
       <c r="F122" t="str">
-        <v>40€</v>
+        <v>22€</v>
       </c>
     </row>
     <row r="123">
@@ -2855,19 +2855,19 @@
         <v>HOMBRE</v>
       </c>
       <c r="B123" t="str">
-        <v>Clarins</v>
+        <v>Dior</v>
       </c>
       <c r="C123" t="str">
-        <v>BAUME SUPER HYDRATANT</v>
+        <v>HOMME</v>
       </c>
       <c r="D123" t="str">
-        <v/>
+        <v>AFTER SHAVE BÁLSAMO</v>
       </c>
       <c r="E123" t="str">
-        <v>50ml</v>
+        <v>100ml</v>
       </c>
       <c r="F123" t="str">
-        <v>30€</v>
+        <v>35€</v>
       </c>
     </row>
     <row r="124">
@@ -2875,244 +2875,3184 @@
         <v>HOMBRE</v>
       </c>
       <c r="B124" t="str">
-        <v>Clarins</v>
+        <v>Jean Paul Gaultier</v>
       </c>
       <c r="C124" t="str">
-        <v>GEL ENERGISANT</v>
+        <v>SCANDAL POUR HOMME</v>
       </c>
       <c r="D124" t="str">
-        <v/>
+        <v>GEL DE BAÑO</v>
       </c>
       <c r="E124" t="str">
-        <v>50ml</v>
+        <v>150ml</v>
       </c>
       <c r="F124" t="str">
-        <v>32€</v>
+        <v>22€</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>HOMBRE</v>
+        <v>PERFUMES NICHOS</v>
       </c>
       <c r="B125" t="str">
-        <v>Clarins</v>
+        <v>Ajmal</v>
       </c>
       <c r="C125" t="str">
-        <v>GEL SUPER HYDRATANT</v>
+        <v>PURELY ORIENT INCENSE EDP</v>
       </c>
       <c r="D125" t="str">
         <v/>
       </c>
       <c r="E125" t="str">
-        <v>50ml</v>
+        <v>75ml</v>
       </c>
       <c r="F125" t="str">
-        <v>30€</v>
+        <v>85€</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>HOMBRE</v>
+        <v>PERFUMES NICHOS</v>
       </c>
       <c r="B126" t="str">
-        <v>Clarins</v>
+        <v>Ajmal</v>
       </c>
       <c r="C126" t="str">
-        <v>GEL ENERGISANT YEUX</v>
+        <v>PURELY ORIENT SANTAL EDP</v>
       </c>
       <c r="D126" t="str">
-        <v>CONTORNO DE OJOS</v>
+        <v/>
       </c>
       <c r="E126" t="str">
-        <v>15ml</v>
+        <v>75ml</v>
       </c>
       <c r="F126" t="str">
-        <v>28€</v>
+        <v>85€</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>HOMBRE</v>
+        <v>PERFUMES NICHOS</v>
       </c>
       <c r="B127" t="str">
-        <v>Clarins</v>
+        <v>Ajmal</v>
       </c>
       <c r="C127" t="str">
-        <v>GEL APAISANT</v>
+        <v>SONNET EDP</v>
       </c>
       <c r="D127" t="str">
-        <v>AFTER SHAVE</v>
+        <v/>
       </c>
       <c r="E127" t="str">
-        <v>75ml</v>
+        <v>100ml</v>
       </c>
       <c r="F127" t="str">
-        <v>25€</v>
+        <v>35€</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>HOMBRE</v>
+        <v>PERFUMES NICHOS</v>
       </c>
       <c r="B128" t="str">
-        <v>Clarins</v>
+        <v>Amouage</v>
       </c>
       <c r="C128" t="str">
-        <v>HUILE RASSAGE + BARBE</v>
+        <v>IMITATION MAN EDP</v>
       </c>
       <c r="D128" t="str">
-        <v>Aceite Para AFEITADO</v>
+        <v/>
       </c>
       <c r="E128" t="str">
-        <v>30ml</v>
+        <v>100ml</v>
       </c>
       <c r="F128" t="str">
-        <v>25€</v>
+        <v>170€</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>HOMBRE</v>
+        <v>PERFUMES NICHOS</v>
       </c>
       <c r="B129" t="str">
-        <v>Claríns</v>
+        <v>Amouage</v>
       </c>
       <c r="C129" t="str">
-        <v>GEL MOUSSANT RASAGE IDEAL</v>
+        <v>OPUS VII RECKLESS LEATHER EDP</v>
       </c>
       <c r="D129" t="str">
-        <v>Gel Espumoso</v>
+        <v/>
       </c>
       <c r="E129" t="str">
-        <v>150ml</v>
+        <v>100ml</v>
       </c>
       <c r="F129" t="str">
-        <v>20€</v>
+        <v>230€</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>HOMBRE</v>
+        <v>PERFUMES NICHOS</v>
       </c>
       <c r="B130" t="str">
-        <v>Claríns</v>
+        <v>Amouage</v>
       </c>
       <c r="C130" t="str">
-        <v>GEL APAISANT</v>
+        <v>OPUS XIII SILVER OUD EDP</v>
       </c>
       <c r="D130" t="str">
-        <v>AFTER SHAVE</v>
+        <v/>
       </c>
       <c r="E130" t="str">
-        <v>75ml</v>
+        <v>100ml</v>
       </c>
       <c r="F130" t="str">
-        <v>25€</v>
+        <v>230€</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>HOMBRE</v>
+        <v>PERFUMES NICHOS</v>
       </c>
       <c r="B131" t="str">
-        <v>Clarins</v>
+        <v>Amouage</v>
       </c>
       <c r="C131" t="str">
-        <v>LOTION APAISANTE</v>
+        <v>OPUS V WOODS SYMPHONY EDP</v>
       </c>
       <c r="D131" t="str">
-        <v>AFTER SHAVE</v>
+        <v/>
       </c>
       <c r="E131" t="str">
         <v>100ml</v>
       </c>
       <c r="F131" t="str">
-        <v>25€</v>
+        <v>230€</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>HOMBRE</v>
+        <v>PERFUMES NICHOS</v>
       </c>
       <c r="B132" t="str">
-        <v>Clarins</v>
+        <v>Anfas</v>
       </c>
       <c r="C132" t="str">
-        <v>NETTOYANT EXFOLIANT</v>
+        <v>HANEEN EXTRAIT DE PARFUM</v>
       </c>
       <c r="D132" t="str">
-        <v>Gel exfoliante y Limpiador</v>
+        <v/>
       </c>
       <c r="E132" t="str">
-        <v>125ml</v>
+        <v>75ml</v>
       </c>
       <c r="F132" t="str">
-        <v>25€</v>
+        <v>130€</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>HOMBRE</v>
+        <v>PERFUMES NICHOS</v>
       </c>
       <c r="B133" t="str">
-        <v>Clarins</v>
+        <v>Anfas</v>
       </c>
       <c r="C133" t="str">
-        <v>NETTOYANT VISAGE ACTIVE</v>
+        <v>HYBRID WATAN GOLD EDP</v>
       </c>
       <c r="D133" t="str">
-        <v>Espuma Limpiadora Facial</v>
+        <v/>
       </c>
       <c r="E133" t="str">
-        <v>125ml</v>
+        <v>75ml</v>
       </c>
       <c r="F133" t="str">
-        <v>22€</v>
+        <v>130€</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>HOMBRE</v>
+        <v>PERFUMES NICHOS</v>
       </c>
       <c r="B134" t="str">
-        <v>Clarins</v>
+        <v>Anfas</v>
       </c>
       <c r="C134" t="str">
-        <v>SHAMPOO &amp; SHOWER</v>
+        <v>MAHABAH EXTRAIT DE PARFUM</v>
       </c>
       <c r="D134" t="str">
         <v/>
       </c>
       <c r="E134" t="str">
-        <v>200ml</v>
+        <v>75ml</v>
       </c>
       <c r="F134" t="str">
-        <v>22€</v>
+        <v>130€</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>HOMBRE</v>
+        <v>PERFUMES NICHOS</v>
       </c>
       <c r="B135" t="str">
-        <v>Dior</v>
+        <v>Anfas</v>
       </c>
       <c r="C135" t="str">
-        <v>HOMME</v>
+        <v>RAHABA EDP</v>
       </c>
       <c r="D135" t="str">
-        <v>AFTER SHAVE BÁLSAMO</v>
+        <v/>
       </c>
       <c r="E135" t="str">
-        <v>100ml</v>
+        <v>75ml</v>
       </c>
       <c r="F135" t="str">
-        <v>35€</v>
+        <v>140€</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Anfas</v>
+      </c>
+      <c r="C136" t="str">
+        <v>SAMAHA EDP</v>
+      </c>
+      <c r="D136" t="str">
+        <v/>
+      </c>
+      <c r="E136" t="str">
+        <v>75ml</v>
+      </c>
+      <c r="F136" t="str">
+        <v>130€</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Anfas</v>
+      </c>
+      <c r="C137" t="str">
+        <v>SHAGHAF EDP</v>
+      </c>
+      <c r="D137" t="str">
+        <v/>
+      </c>
+      <c r="E137" t="str">
+        <v>75ml</v>
+      </c>
+      <c r="F137" t="str">
+        <v>130€</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Anfas</v>
+      </c>
+      <c r="C138" t="str">
+        <v>SHAOUQ EXTRAIT DE PARFUM</v>
+      </c>
+      <c r="D138" t="str">
+        <v/>
+      </c>
+      <c r="E138" t="str">
+        <v>75ml</v>
+      </c>
+      <c r="F138" t="str">
+        <v>130€</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Armani Prive</v>
+      </c>
+      <c r="C139" t="str">
+        <v>THE YULONG EDT</v>
+      </c>
+      <c r="D139" t="str">
+        <v/>
+      </c>
+      <c r="E139" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F139" t="str">
+        <v>120€</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Boadicea</v>
+      </c>
+      <c r="C140" t="str">
+        <v>THE VICTORIOUS COMPLEX 2020 EDP</v>
+      </c>
+      <c r="D140" t="str">
+        <v/>
+      </c>
+      <c r="E140" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F140" t="str">
+        <v>210€</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B141" t="str">
+        <v>Bond No 9</v>
+      </c>
+      <c r="C141" t="str">
+        <v>CENTRAL PARK WEST EDP</v>
+      </c>
+      <c r="D141" t="str">
+        <v/>
+      </c>
+      <c r="E141" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F141" t="str">
+        <v>150€</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B142" t="str">
+        <v>Bond No 9</v>
+      </c>
+      <c r="C142" t="str">
+        <v>SUTTON PLACE EDP</v>
+      </c>
+      <c r="D142" t="str">
+        <v/>
+      </c>
+      <c r="E142" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F142" t="str">
+        <v>150€</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B143" t="str">
+        <v>Carner Barcelona</v>
+      </c>
+      <c r="C143" t="str">
+        <v>COSTALERA EDP</v>
+      </c>
+      <c r="D143" t="str">
+        <v/>
+      </c>
+      <c r="E143" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F143" t="str">
+        <v>95€</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B144" t="str">
+        <v>Carner Barcelona</v>
+      </c>
+      <c r="C144" t="str">
+        <v>SALADO EDP</v>
+      </c>
+      <c r="D144" t="str">
+        <v/>
+      </c>
+      <c r="E144" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F144" t="str">
+        <v>95€</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B145" t="str">
+        <v>Creed</v>
+      </c>
+      <c r="C145" t="str">
+        <v>ASÍAN GREEN TEA</v>
+      </c>
+      <c r="D145" t="str">
+        <v/>
+      </c>
+      <c r="E145" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F145" t="str">
+        <v>150€</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B146" t="str">
+        <v>Creed</v>
+      </c>
+      <c r="C146" t="str">
+        <v>CEDRE BLANC</v>
+      </c>
+      <c r="D146" t="str">
+        <v/>
+      </c>
+      <c r="E146" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F146" t="str">
+        <v>150€</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B147" t="str">
+        <v>Creed</v>
+      </c>
+      <c r="C147" t="str">
+        <v>IRIS TUBEREUSE</v>
+      </c>
+      <c r="D147" t="str">
+        <v/>
+      </c>
+      <c r="E147" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F147" t="str">
+        <v>150€</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Creed</v>
+      </c>
+      <c r="C148" t="str">
+        <v>NEROLI SAUVAGE</v>
+      </c>
+      <c r="D148" t="str">
+        <v/>
+      </c>
+      <c r="E148" t="str">
+        <v>75ml</v>
+      </c>
+      <c r="F148" t="str">
+        <v>150€</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B149" t="str">
+        <v>Eight Bob</v>
+      </c>
+      <c r="C149" t="str">
+        <v>THE ORIGINAL EDP</v>
+      </c>
+      <c r="D149" t="str">
+        <v>INSIDE BOOK</v>
+      </c>
+      <c r="E149" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F149" t="str">
+        <v>110€</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B150" t="str">
+        <v>Estee Lauder</v>
+      </c>
+      <c r="C150" t="str">
+        <v>BLUSHING SANDS EDP</v>
+      </c>
+      <c r="D150" t="str">
+        <v/>
+      </c>
+      <c r="E150" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F150" t="str">
+        <v>85€</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B151" t="str">
+        <v>Estee Lauder</v>
+      </c>
+      <c r="C151" t="str">
+        <v>DESERT EDEN EDP</v>
+      </c>
+      <c r="D151" t="str">
+        <v/>
+      </c>
+      <c r="E151" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F151" t="str">
+        <v>85€</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B152" t="str">
+        <v>Estee Lauder</v>
+      </c>
+      <c r="C152" t="str">
+        <v>DREAM DUSK EDP</v>
+      </c>
+      <c r="D152" t="str">
+        <v/>
+      </c>
+      <c r="E152" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F152" t="str">
+        <v>85€</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B153" t="str">
+        <v>Estee Lauder</v>
+      </c>
+      <c r="C153" t="str">
+        <v>INFINITE SKY EDP</v>
+      </c>
+      <c r="D153" t="str">
+        <v/>
+      </c>
+      <c r="E153" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F153" t="str">
+        <v>85€</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B154" t="str">
+        <v>Estee Lauder</v>
+      </c>
+      <c r="C154" t="str">
+        <v>SENSUOUS STARS EDP</v>
+      </c>
+      <c r="D154" t="str">
+        <v/>
+      </c>
+      <c r="E154" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F154" t="str">
+        <v>85€</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B155" t="str">
+        <v>Floris</v>
+      </c>
+      <c r="C155" t="str">
+        <v>N89 EDT</v>
+      </c>
+      <c r="D155" t="str">
+        <v/>
+      </c>
+      <c r="E155" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F155" t="str">
+        <v>70€</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B156" t="str">
+        <v>Giardini Di Toscana</v>
+      </c>
+      <c r="C156" t="str">
+        <v>BIANCO LATTE EDP</v>
+      </c>
+      <c r="D156" t="str">
+        <v/>
+      </c>
+      <c r="E156" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F156" t="str">
+        <v>105€</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B157" t="str">
+        <v>Gisada</v>
+      </c>
+      <c r="C157" t="str">
+        <v>AMBASSADOR INTENSE EDP</v>
+      </c>
+      <c r="D157" t="str">
+        <v/>
+      </c>
+      <c r="E157" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F157" t="str">
+        <v>105€</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B158" t="str">
+        <v>Guerlain</v>
+      </c>
+      <c r="C158" t="str">
+        <v>AQUA ALLEGORIA ENCENS MYTHIQUE EDP</v>
+      </c>
+      <c r="D158" t="str">
+        <v/>
+      </c>
+      <c r="E158" t="str">
+        <v>125ml</v>
+      </c>
+      <c r="F158" t="str">
+        <v>95€</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B159" t="str">
+        <v>Guerlain</v>
+      </c>
+      <c r="C159" t="str">
+        <v>ACQUA ALLEGORIA MUSC NUBLE EDP</v>
+      </c>
+      <c r="D159" t="str">
+        <v/>
+      </c>
+      <c r="E159" t="str">
+        <v>125ml</v>
+      </c>
+      <c r="F159" t="str">
+        <v>95€</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B160" t="str">
+        <v>Jesus Del Pozo</v>
+      </c>
+      <c r="C160" t="str">
+        <v>NIGHTOLOGY EXQUISITE LILY EDP</v>
+      </c>
+      <c r="D160" t="str">
+        <v/>
+      </c>
+      <c r="E160" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F160" t="str">
+        <v>60€</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B161" t="str">
+        <v>Jesus Del Pozo</v>
+      </c>
+      <c r="C161" t="str">
+        <v>NIGHTOLOGY SUEDE BREEZE EDP</v>
+      </c>
+      <c r="D161" t="str">
+        <v/>
+      </c>
+      <c r="E161" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F161" t="str">
+        <v>60€</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B162" t="str">
+        <v>Jesus Del Pozo</v>
+      </c>
+      <c r="C162" t="str">
+        <v>NIGHTOLOGY VIVID VELVET EDP</v>
+      </c>
+      <c r="D162" t="str">
+        <v/>
+      </c>
+      <c r="E162" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F162" t="str">
+        <v>60€</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B163" t="str">
+        <v>Juliette Has A Gun</v>
+      </c>
+      <c r="C163" t="str">
+        <v>ANYWAY EDP</v>
+      </c>
+      <c r="D163" t="str">
+        <v/>
+      </c>
+      <c r="E163" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F163" t="str">
+        <v>65€</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B164" t="str">
+        <v>Juliette Has A Gun</v>
+      </c>
+      <c r="C164" t="str">
+        <v>JULIETTE EDP</v>
+      </c>
+      <c r="D164" t="str">
+        <v/>
+      </c>
+      <c r="E164" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F164" t="str">
+        <v>65€</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B165" t="str">
+        <v>Juliette Has A Gun</v>
+      </c>
+      <c r="C165" t="str">
+        <v>LADY VENGEANCE EDP</v>
+      </c>
+      <c r="D165" t="str">
+        <v/>
+      </c>
+      <c r="E165" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F165" t="str">
+        <v>65€</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B166" t="str">
+        <v>Juliette Has A Gun</v>
+      </c>
+      <c r="C166" t="str">
+        <v>MOSCOW MULE EDP</v>
+      </c>
+      <c r="D166" t="str">
+        <v/>
+      </c>
+      <c r="E166" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F166" t="str">
+        <v>65€</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B167" t="str">
+        <v>Juliette Has A Gun</v>
+      </c>
+      <c r="C167" t="str">
+        <v>VANILLA VIBES EDP</v>
+      </c>
+      <c r="D167" t="str">
+        <v/>
+      </c>
+      <c r="E167" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F167" t="str">
+        <v>65€</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B168" t="str">
+        <v>Juliette Has A Gun</v>
+      </c>
+      <c r="C168" t="str">
+        <v>IN THE MOOD FOR OUD EDP</v>
+      </c>
+      <c r="D168" t="str">
+        <v/>
+      </c>
+      <c r="E168" t="str">
+        <v>75ml</v>
+      </c>
+      <c r="F168" t="str">
+        <v>80€</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B169" t="str">
+        <v>Juliette Has A Gun</v>
+      </c>
+      <c r="C169" t="str">
+        <v>OIL FICTION EDP</v>
+      </c>
+      <c r="D169" t="str">
+        <v/>
+      </c>
+      <c r="E169" t="str">
+        <v>75ml</v>
+      </c>
+      <c r="F169" t="str">
+        <v>80€</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B170" t="str">
+        <v>Kajal</v>
+      </c>
+      <c r="C170" t="str">
+        <v>DAHAB BY KAJAL EDP</v>
+      </c>
+      <c r="D170" t="str">
+        <v/>
+      </c>
+      <c r="E170" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F170" t="str">
+        <v>105€</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B171" t="str">
+        <v>Loewe</v>
+      </c>
+      <c r="C171" t="str">
+        <v>ATARDECER EN LOS JARDINES DEL BUEN RETIRO EDP</v>
+      </c>
+      <c r="D171" t="str">
+        <v/>
+      </c>
+      <c r="E171" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F171" t="str">
+        <v>120€</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B172" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C172" t="str">
+        <v>AMBER &amp; ROSES EDP</v>
+      </c>
+      <c r="D172" t="str">
+        <v/>
+      </c>
+      <c r="E172" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F172" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B173" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C173" t="str">
+        <v>AOUD LINE EDP</v>
+      </c>
+      <c r="D173" t="str">
+        <v/>
+      </c>
+      <c r="E173" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F173" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B174" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C174" t="str">
+        <v>BLACK INTENSITIVE AOUD EDP</v>
+      </c>
+      <c r="D174" t="str">
+        <v/>
+      </c>
+      <c r="E174" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F174" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B175" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C175" t="str">
+        <v>CEDRAT BOISE EDP</v>
+      </c>
+      <c r="D175" t="str">
+        <v/>
+      </c>
+      <c r="E175" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F175" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B176" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C176" t="str">
+        <v>CHERRY CHERRY EDP</v>
+      </c>
+      <c r="D176" t="str">
+        <v/>
+      </c>
+      <c r="E176" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F176" t="str">
+        <v>95€</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B177" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C177" t="str">
+        <v>FABULOUS YUZU EDP</v>
+      </c>
+      <c r="D177" t="str">
+        <v/>
+      </c>
+      <c r="E177" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F177" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B178" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C178" t="str">
+        <v>FEMINITY EDP</v>
+      </c>
+      <c r="D178" t="str">
+        <v/>
+      </c>
+      <c r="E178" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F178" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B179" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C179" t="str">
+        <v>GOLD INCENSE EDP</v>
+      </c>
+      <c r="D179" t="str">
+        <v/>
+      </c>
+      <c r="E179" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F179" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B180" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C180" t="str">
+        <v>GOLD INTENSIVE AOUD EDP</v>
+      </c>
+      <c r="D180" t="str">
+        <v/>
+      </c>
+      <c r="E180" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F180" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B181" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C181" t="str">
+        <v>INSTANT CRUSH INTENSE EDP</v>
+      </c>
+      <c r="D181" t="str">
+        <v/>
+      </c>
+      <c r="E181" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F181" t="str">
+        <v>105€</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B182" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C182" t="str">
+        <v>KUMKAT WOOD EDP</v>
+      </c>
+      <c r="D182" t="str">
+        <v/>
+      </c>
+      <c r="E182" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F182" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B183" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C183" t="str">
+        <v>MIDNIGHT GOLD EDP</v>
+      </c>
+      <c r="D183" t="str">
+        <v/>
+      </c>
+      <c r="E183" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F183" t="str">
+        <v>80€</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B184" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C184" t="str">
+        <v>PURPLE FLOWERS EDP</v>
+      </c>
+      <c r="D184" t="str">
+        <v/>
+      </c>
+      <c r="E184" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F184" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B185" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C185" t="str">
+        <v>ROSES GREEDY EDP</v>
+      </c>
+      <c r="D185" t="str">
+        <v/>
+      </c>
+      <c r="E185" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F185" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B186" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C186" t="str">
+        <v>ROSES VANILLA EDP</v>
+      </c>
+      <c r="D186" t="str">
+        <v/>
+      </c>
+      <c r="E186" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F186" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B187" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C187" t="str">
+        <v>ROYAL VANILLA EDP</v>
+      </c>
+      <c r="D187" t="str">
+        <v/>
+      </c>
+      <c r="E187" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F187" t="str">
+        <v>90€</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B188" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C188" t="str">
+        <v>SAHARIAN WIND EDP</v>
+      </c>
+      <c r="D188" t="str">
+        <v/>
+      </c>
+      <c r="E188" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F188" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B189" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C189" t="str">
+        <v>TONKA COLA EDP</v>
+      </c>
+      <c r="D189" t="str">
+        <v/>
+      </c>
+      <c r="E189" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F189" t="str">
+        <v>95€</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B190" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C190" t="str">
+        <v>VANILLE EXCLUSIVE EDP</v>
+      </c>
+      <c r="D190" t="str">
+        <v/>
+      </c>
+      <c r="E190" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F190" t="str">
+        <v>80€</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B191" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C191" t="str">
+        <v>VELVET VANILLA EDP</v>
+      </c>
+      <c r="D191" t="str">
+        <v/>
+      </c>
+      <c r="E191" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F191" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B192" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C192" t="str">
+        <v>WILD FRUITS EDP</v>
+      </c>
+      <c r="D192" t="str">
+        <v/>
+      </c>
+      <c r="E192" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F192" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B193" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C193" t="str">
+        <v>WILD LEATHER EDP</v>
+      </c>
+      <c r="D193" t="str">
+        <v/>
+      </c>
+      <c r="E193" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F193" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B194" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C194" t="str">
+        <v>WILD PYTHON EDP</v>
+      </c>
+      <c r="D194" t="str">
+        <v/>
+      </c>
+      <c r="E194" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F194" t="str">
+        <v>80€</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B195" t="str">
+        <v>Mancera</v>
+      </c>
+      <c r="C195" t="str">
+        <v>WILD ROSE AOUD EDP</v>
+      </c>
+      <c r="D195" t="str">
+        <v/>
+      </c>
+      <c r="E195" t="str">
+        <v>120ml</v>
+      </c>
+      <c r="F195" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B196" t="str">
+        <v>Memo Paris</v>
+      </c>
+      <c r="C196" t="str">
+        <v>ORIENTAL LEATHER EDP</v>
+      </c>
+      <c r="D196" t="str">
+        <v/>
+      </c>
+      <c r="E196" t="str">
+        <v>75ml</v>
+      </c>
+      <c r="F196" t="str">
+        <v>140€</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B197" t="str">
+        <v>Micallef</v>
+      </c>
+      <c r="C197" t="str">
+        <v>YLANG IN GOLD EDP</v>
+      </c>
+      <c r="D197" t="str">
+        <v/>
+      </c>
+      <c r="E197" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F197" t="str">
+        <v>130€</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B198" t="str">
+        <v>Milano Fraganze</v>
+      </c>
+      <c r="C198" t="str">
+        <v>BRERA EDP</v>
+      </c>
+      <c r="D198" t="str">
+        <v/>
+      </c>
+      <c r="E198" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F198" t="str">
+        <v>80€</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B199" t="str">
+        <v>Milano Fraganze</v>
+      </c>
+      <c r="C199" t="str">
+        <v>CORTILE EDP</v>
+      </c>
+      <c r="D199" t="str">
+        <v/>
+      </c>
+      <c r="E199" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F199" t="str">
+        <v>80€</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B200" t="str">
+        <v>Milano Fraganze</v>
+      </c>
+      <c r="C200" t="str">
+        <v>DERBY EDP</v>
+      </c>
+      <c r="D200" t="str">
+        <v/>
+      </c>
+      <c r="E200" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F200" t="str">
+        <v>80€</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B201" t="str">
+        <v>Milano Fraganze</v>
+      </c>
+      <c r="C201" t="str">
+        <v>DIURNO EDP</v>
+      </c>
+      <c r="D201" t="str">
+        <v/>
+      </c>
+      <c r="E201" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F201" t="str">
+        <v>80€</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B202" t="str">
+        <v>Milano Fraganze</v>
+      </c>
+      <c r="C202" t="str">
+        <v>GALLERIA EDP</v>
+      </c>
+      <c r="D202" t="str">
+        <v/>
+      </c>
+      <c r="E202" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F202" t="str">
+        <v>80€</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B203" t="str">
+        <v>Milano Fraganze</v>
+      </c>
+      <c r="C203" t="str">
+        <v>LA PRIMA EDP</v>
+      </c>
+      <c r="D203" t="str">
+        <v/>
+      </c>
+      <c r="E203" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F203" t="str">
+        <v>80€</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B204" t="str">
+        <v>Móntale</v>
+      </c>
+      <c r="C204" t="str">
+        <v>AOUD CUIR D’ARABIE EDP</v>
+      </c>
+      <c r="D204" t="str">
+        <v/>
+      </c>
+      <c r="E204" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F204" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B205" t="str">
+        <v>Móntale</v>
+      </c>
+      <c r="C205" t="str">
+        <v>AOUD PURPLE ROSE EDP</v>
+      </c>
+      <c r="D205" t="str">
+        <v/>
+      </c>
+      <c r="E205" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F205" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B206" t="str">
+        <v>Móntale</v>
+      </c>
+      <c r="C206" t="str">
+        <v>CANDY ROSE EDP</v>
+      </c>
+      <c r="D206" t="str">
+        <v/>
+      </c>
+      <c r="E206" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F206" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B207" t="str">
+        <v>Montale</v>
+      </c>
+      <c r="C207" t="str">
+        <v>CHYPRE FRUITE EDP</v>
+      </c>
+      <c r="D207" t="str">
+        <v/>
+      </c>
+      <c r="E207" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F207" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B208" t="str">
+        <v>Móntale</v>
+      </c>
+      <c r="C208" t="str">
+        <v>DARK PURPLE EDP</v>
+      </c>
+      <c r="D208" t="str">
+        <v/>
+      </c>
+      <c r="E208" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F208" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B209" t="str">
+        <v>Móntale</v>
+      </c>
+      <c r="C209" t="str">
+        <v>DIAMOND ROSE EDP</v>
+      </c>
+      <c r="D209" t="str">
+        <v/>
+      </c>
+      <c r="E209" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F209" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B210" t="str">
+        <v>Montale</v>
+      </c>
+      <c r="C210" t="str">
+        <v>FANTASTIC BASILIC EDP</v>
+      </c>
+      <c r="D210" t="str">
+        <v/>
+      </c>
+      <c r="E210" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F210" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B211" t="str">
+        <v>Montale</v>
+      </c>
+      <c r="C211" t="str">
+        <v>FRUITS OF THE MUSK EDP</v>
+      </c>
+      <c r="D211" t="str">
+        <v/>
+      </c>
+      <c r="E211" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F211" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B212" t="str">
+        <v>Móntale</v>
+      </c>
+      <c r="C212" t="str">
+        <v>INTENSE PEPPER EDP</v>
+      </c>
+      <c r="D212" t="str">
+        <v/>
+      </c>
+      <c r="E212" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F212" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B213" t="str">
+        <v>Móntale</v>
+      </c>
+      <c r="C213" t="str">
+        <v>INTENSE TIARE EDP</v>
+      </c>
+      <c r="D213" t="str">
+        <v/>
+      </c>
+      <c r="E213" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F213" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B214" t="str">
+        <v>Montale</v>
+      </c>
+      <c r="C214" t="str">
+        <v>JASMIN FULL EDP</v>
+      </c>
+      <c r="D214" t="str">
+        <v/>
+      </c>
+      <c r="E214" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F214" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B215" t="str">
+        <v>Móntale</v>
+      </c>
+      <c r="C215" t="str">
+        <v>OUD EDITION EDP</v>
+      </c>
+      <c r="D215" t="str">
+        <v/>
+      </c>
+      <c r="E215" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F215" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B216" t="str">
+        <v>Móntale</v>
+      </c>
+      <c r="C216" t="str">
+        <v>OUD TABACCO EDP</v>
+      </c>
+      <c r="D216" t="str">
+        <v/>
+      </c>
+      <c r="E216" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F216" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B217" t="str">
+        <v>Móntale</v>
+      </c>
+      <c r="C217" t="str">
+        <v>ROSE ELIXIR EDP</v>
+      </c>
+      <c r="D217" t="str">
+        <v/>
+      </c>
+      <c r="E217" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F217" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B218" t="str">
+        <v>Móntale</v>
+      </c>
+      <c r="C218" t="str">
+        <v>ROSE MUSK INTENSE EDP</v>
+      </c>
+      <c r="D218" t="str">
+        <v/>
+      </c>
+      <c r="E218" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F218" t="str">
+        <v>95€</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B219" t="str">
+        <v>Móntale</v>
+      </c>
+      <c r="C219" t="str">
+        <v>ROSE NIGHT EDP</v>
+      </c>
+      <c r="D219" t="str">
+        <v/>
+      </c>
+      <c r="E219" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F219" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B220" t="str">
+        <v>Móntale</v>
+      </c>
+      <c r="C220" t="str">
+        <v>VANILLA EXTASY EDP</v>
+      </c>
+      <c r="D220" t="str">
+        <v/>
+      </c>
+      <c r="E220" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F220" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B221" t="str">
+        <v>Móntale</v>
+      </c>
+      <c r="C221" t="str">
+        <v>VANILLE ABSOLU EDP</v>
+      </c>
+      <c r="D221" t="str">
+        <v/>
+      </c>
+      <c r="E221" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F221" t="str">
+        <v>75€</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B222" t="str">
+        <v>Nasomatto</v>
+      </c>
+      <c r="C222" t="str">
+        <v>BARAONDA EXTRAIT DE PARFUM</v>
+      </c>
+      <c r="D222" t="str">
+        <v/>
+      </c>
+      <c r="E222" t="str">
+        <v>30ml</v>
+      </c>
+      <c r="F222" t="str">
+        <v>105€</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B223" t="str">
+        <v>Nasomatto</v>
+      </c>
+      <c r="C223" t="str">
+        <v>DURO EXTRAIT DE PARFUM</v>
+      </c>
+      <c r="D223" t="str">
+        <v/>
+      </c>
+      <c r="E223" t="str">
+        <v>30ml</v>
+      </c>
+      <c r="F223" t="str">
+        <v>105€</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B224" t="str">
+        <v>Nasomatto</v>
+      </c>
+      <c r="C224" t="str">
+        <v>NARCOTIC V EXTRAIT DE PARFUM</v>
+      </c>
+      <c r="D224" t="str">
+        <v/>
+      </c>
+      <c r="E224" t="str">
+        <v>30ml</v>
+      </c>
+      <c r="F224" t="str">
+        <v>105€</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B225" t="str">
+        <v>Nasomatto</v>
+      </c>
+      <c r="C225" t="str">
+        <v>PARDON EXTRAIT DE PARFUM</v>
+      </c>
+      <c r="D225" t="str">
+        <v/>
+      </c>
+      <c r="E225" t="str">
+        <v>30ml</v>
+      </c>
+      <c r="F225" t="str">
+        <v>105€</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B226" t="str">
+        <v>Noeme Paris</v>
+      </c>
+      <c r="C226" t="str">
+        <v>ABYSSE EDP</v>
+      </c>
+      <c r="D226" t="str">
+        <v/>
+      </c>
+      <c r="E226" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F226" t="str">
+        <v>105€</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B227" t="str">
+        <v>Noeme Paris</v>
+      </c>
+      <c r="C227" t="str">
+        <v>ALTAI EDP</v>
+      </c>
+      <c r="D227" t="str">
+        <v/>
+      </c>
+      <c r="E227" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F227" t="str">
+        <v>105€</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B228" t="str">
+        <v>Noeme Paris</v>
+      </c>
+      <c r="C228" t="str">
+        <v>AMAN EDP</v>
+      </c>
+      <c r="D228" t="str">
+        <v/>
+      </c>
+      <c r="E228" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F228" t="str">
+        <v>105€</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B229" t="str">
+        <v>Noeme Paris</v>
+      </c>
+      <c r="C229" t="str">
+        <v>KALAHARI EXTREME EDP</v>
+      </c>
+      <c r="D229" t="str">
+        <v/>
+      </c>
+      <c r="E229" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F229" t="str">
+        <v>105€</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B230" t="str">
+        <v>Orto Parisi</v>
+      </c>
+      <c r="C230" t="str">
+        <v>SEMINALIS EDP</v>
+      </c>
+      <c r="D230" t="str">
+        <v/>
+      </c>
+      <c r="E230" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F230" t="str">
+        <v>110€</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B231" t="str">
+        <v>Parfums de Marly</v>
+      </c>
+      <c r="C231" t="str">
+        <v>LAYTON EXCLUSIF PARFUM</v>
+      </c>
+      <c r="D231" t="str">
+        <v/>
+      </c>
+      <c r="E231" t="str">
+        <v>125ml</v>
+      </c>
+      <c r="F231" t="str">
+        <v>220€</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B232" t="str">
+        <v>Perris Monte Carlo</v>
+      </c>
+      <c r="C232" t="str">
+        <v>BARGAMOTTO DI CALABRIA EDP</v>
+      </c>
+      <c r="D232" t="str">
+        <v/>
+      </c>
+      <c r="E232" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F232" t="str">
+        <v>85€</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B233" t="str">
+        <v>Perris Monte Carlo</v>
+      </c>
+      <c r="C233" t="str">
+        <v>CACAO AZTEQUE EDP</v>
+      </c>
+      <c r="D233" t="str">
+        <v/>
+      </c>
+      <c r="E233" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F233" t="str">
+        <v>85€</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B234" t="str">
+        <v>Perris Monte Carlo</v>
+      </c>
+      <c r="C234" t="str">
+        <v>ENCENS SACRE EDP</v>
+      </c>
+      <c r="D234" t="str">
+        <v/>
+      </c>
+      <c r="E234" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F234" t="str">
+        <v>85€</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B235" t="str">
+        <v>Perris Monte Carlo</v>
+      </c>
+      <c r="C235" t="str">
+        <v>JASMIN DE PAYS EDP</v>
+      </c>
+      <c r="D235" t="str">
+        <v/>
+      </c>
+      <c r="E235" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F235" t="str">
+        <v>85€</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B236" t="str">
+        <v>Perris Monte Carlo</v>
+      </c>
+      <c r="C236" t="str">
+        <v>MANDARINO DI SICILIA EDP</v>
+      </c>
+      <c r="D236" t="str">
+        <v/>
+      </c>
+      <c r="E236" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F236" t="str">
+        <v>85€</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B237" t="str">
+        <v>Perris Monte Carlo</v>
+      </c>
+      <c r="C237" t="str">
+        <v>MUSK EXTREME EDP</v>
+      </c>
+      <c r="D237" t="str">
+        <v/>
+      </c>
+      <c r="E237" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F237" t="str">
+        <v>85€</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B238" t="str">
+        <v>Perris Monte Carlo</v>
+      </c>
+      <c r="C238" t="str">
+        <v>NEROLI MEDITERRANEO EDP</v>
+      </c>
+      <c r="D238" t="str">
+        <v/>
+      </c>
+      <c r="E238" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F238" t="str">
+        <v>85€</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B239" t="str">
+        <v>Perris Monte Carlo</v>
+      </c>
+      <c r="C239" t="str">
+        <v>OUD IMPERIAL EDP</v>
+      </c>
+      <c r="D239" t="str">
+        <v/>
+      </c>
+      <c r="E239" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F239" t="str">
+        <v>85€</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B240" t="str">
+        <v>Perris Monte Carlo</v>
+      </c>
+      <c r="C240" t="str">
+        <v>ROSE DE MAI EDP</v>
+      </c>
+      <c r="D240" t="str">
+        <v/>
+      </c>
+      <c r="E240" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F240" t="str">
+        <v>85€</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B241" t="str">
+        <v>Perris Monte Carlo</v>
+      </c>
+      <c r="C241" t="str">
+        <v>ROSE DE TAIF EDP</v>
+      </c>
+      <c r="D241" t="str">
+        <v/>
+      </c>
+      <c r="E241" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F241" t="str">
+        <v>85€</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B242" t="str">
+        <v>Perris Monte Carlo</v>
+      </c>
+      <c r="C242" t="str">
+        <v>TUBEREUSE ABSOLUE EDP</v>
+      </c>
+      <c r="D242" t="str">
+        <v/>
+      </c>
+      <c r="E242" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F242" t="str">
+        <v>85€</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B243" t="str">
+        <v>Ramon Monegal</v>
+      </c>
+      <c r="C243" t="str">
+        <v>AGAR MUSK EDP</v>
+      </c>
+      <c r="D243" t="str">
+        <v/>
+      </c>
+      <c r="E243" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F243" t="str">
+        <v>110€</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B244" t="str">
+        <v>Ramon Monegal</v>
+      </c>
+      <c r="C244" t="str">
+        <v>BRAVO EDP</v>
+      </c>
+      <c r="D244" t="str">
+        <v/>
+      </c>
+      <c r="E244" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F244" t="str">
+        <v>150€</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B245" t="str">
+        <v>Ramon Monegal</v>
+      </c>
+      <c r="C245" t="str">
+        <v>DRY WOOD EDP</v>
+      </c>
+      <c r="D245" t="str">
+        <v/>
+      </c>
+      <c r="E245" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F245" t="str">
+        <v>110€</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B246" t="str">
+        <v>Ramon Monegal</v>
+      </c>
+      <c r="C246" t="str">
+        <v>HAND IN HAND EDP</v>
+      </c>
+      <c r="D246" t="str">
+        <v/>
+      </c>
+      <c r="E246" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F246" t="str">
+        <v>120€</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B247" t="str">
+        <v>Ramon Monegal</v>
+      </c>
+      <c r="C247" t="str">
+        <v>OUD ON FIRE EXTRAIT DE PARFUM</v>
+      </c>
+      <c r="D247" t="str">
+        <v/>
+      </c>
+      <c r="E247" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F247" t="str">
+        <v>150€</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B248" t="str">
+        <v>Ramon Monegal</v>
+      </c>
+      <c r="C248" t="str">
+        <v>UMBRA EDP</v>
+      </c>
+      <c r="D248" t="str">
+        <v/>
+      </c>
+      <c r="E248" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F248" t="str">
+        <v>110€</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B249" t="str">
+        <v>Rosendo Mateu 5</v>
+      </c>
+      <c r="C249" t="str">
+        <v>EDP</v>
+      </c>
+      <c r="D249" t="str">
+        <v/>
+      </c>
+      <c r="E249" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F249" t="str">
+        <v>120€</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B250" t="str">
+        <v>Rosendo Mateu 1968</v>
+      </c>
+      <c r="C250" t="str">
+        <v>EDP</v>
+      </c>
+      <c r="D250" t="str">
+        <v/>
+      </c>
+      <c r="E250" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F250" t="str">
+        <v>130€</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B251" t="str">
+        <v>Serge Lutens L’ORPHELINE</v>
+      </c>
+      <c r="C251" t="str">
+        <v>EDP</v>
+      </c>
+      <c r="D251" t="str">
+        <v/>
+      </c>
+      <c r="E251" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F251" t="str">
+        <v>60€</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B252" t="str">
+        <v>Serge Lutens</v>
+      </c>
+      <c r="C252" t="str">
+        <v>LA RELIGIEUSE EDP</v>
+      </c>
+      <c r="D252" t="str">
+        <v/>
+      </c>
+      <c r="E252" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F252" t="str">
+        <v>60€</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B253" t="str">
+        <v>Tiziana Terenzi</v>
+      </c>
+      <c r="C253" t="str">
+        <v>CASANOVA EXTRAIT DE PARFUM</v>
+      </c>
+      <c r="D253" t="str">
+        <v/>
+      </c>
+      <c r="E253" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F253" t="str">
+        <v>160€</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B254" t="str">
+        <v>Tiziana Terenzi</v>
+      </c>
+      <c r="C254" t="str">
+        <v>CASSIOPEA EXTRAIT DE PARFUM</v>
+      </c>
+      <c r="D254" t="str">
+        <v/>
+      </c>
+      <c r="E254" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F254" t="str">
+        <v>160€</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B255" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C255" t="str">
+        <v>BITTER PEACH EDP</v>
+      </c>
+      <c r="D255" t="str">
+        <v/>
+      </c>
+      <c r="E255" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F255" t="str">
+        <v>205€</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B256" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C256" t="str">
+        <v>BLACK ORCHID EDP</v>
+      </c>
+      <c r="D256" t="str">
+        <v/>
+      </c>
+      <c r="E256" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F256" t="str">
+        <v>90€</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B257" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C257" t="str">
+        <v>BLACK ORCHID PARFUM</v>
+      </c>
+      <c r="D257" t="str">
+        <v/>
+      </c>
+      <c r="E257" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F257" t="str">
+        <v>100€</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B258" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C258" t="str">
+        <v>CAFÉ ROSE EDP</v>
+      </c>
+      <c r="D258" t="str">
+        <v/>
+      </c>
+      <c r="E258" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F258" t="str">
+        <v>95€</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B259" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C259" t="str">
+        <v>FUCKING FABULOUS EDP</v>
+      </c>
+      <c r="D259" t="str">
+        <v/>
+      </c>
+      <c r="E259" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F259" t="str">
+        <v>185€</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B260" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C260" t="str">
+        <v>LOST CHERRY EDP</v>
+      </c>
+      <c r="D260" t="str">
+        <v/>
+      </c>
+      <c r="E260" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F260" t="str">
+        <v>205€</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B261" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C261" t="str">
+        <v>NEROLI PORTOFINO EDP</v>
+      </c>
+      <c r="D261" t="str">
+        <v/>
+      </c>
+      <c r="E261" t="str">
+        <v>30ml</v>
+      </c>
+      <c r="F261" t="str">
+        <v>120€</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B262" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C262" t="str">
+        <v>NEROLI PORTOFINO EDP</v>
+      </c>
+      <c r="D262" t="str">
+        <v/>
+      </c>
+      <c r="E262" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F262" t="str">
+        <v>185€</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B263" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C263" t="str">
+        <v>OUD WOOD EDP</v>
+      </c>
+      <c r="D263" t="str">
+        <v/>
+      </c>
+      <c r="E263" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F263" t="str">
+        <v>185€</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B264" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C264" t="str">
+        <v>TABACCO VANILLE EDP</v>
+      </c>
+      <c r="D264" t="str">
+        <v/>
+      </c>
+      <c r="E264" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F264" t="str">
+        <v>185€</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B265" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C265" t="str">
+        <v>VELVET ORCHID EDP</v>
+      </c>
+      <c r="D265" t="str">
+        <v/>
+      </c>
+      <c r="E265" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F265" t="str">
+        <v>90€</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B266" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C266" t="str">
+        <v>GREY VETIVER EDP</v>
+      </c>
+      <c r="D266" t="str">
+        <v/>
+      </c>
+      <c r="E266" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F266" t="str">
+        <v>115€</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B267" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C267" t="str">
+        <v>GREY VETIVER PARFUM</v>
+      </c>
+      <c r="D267" t="str">
+        <v/>
+      </c>
+      <c r="E267" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F267" t="str">
+        <v>90€</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B268" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C268" t="str">
+        <v>GREY VETIVER PARFUM</v>
+      </c>
+      <c r="D268" t="str">
+        <v/>
+      </c>
+      <c r="E268" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F268" t="str">
+        <v>130€</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B269" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C269" t="str">
+        <v>NOIR EDP</v>
+      </c>
+      <c r="D269" t="str">
+        <v/>
+      </c>
+      <c r="E269" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F269" t="str">
+        <v>120€</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B270" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C270" t="str">
+        <v>NOIR EXTREME EDP</v>
+      </c>
+      <c r="D270" t="str">
+        <v/>
+      </c>
+      <c r="E270" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F270" t="str">
+        <v>95€</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B271" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C271" t="str">
+        <v>NOIR EXTREME PARFUM</v>
+      </c>
+      <c r="D271" t="str">
+        <v/>
+      </c>
+      <c r="E271" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F271" t="str">
+        <v>105€</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B272" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C272" t="str">
+        <v>OMBRE LEATHER EDP</v>
+      </c>
+      <c r="D272" t="str">
+        <v/>
+      </c>
+      <c r="E272" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F272" t="str">
+        <v>90€</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B273" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C273" t="str">
+        <v>OMBRE LEATHER PARFUM</v>
+      </c>
+      <c r="D273" t="str">
+        <v/>
+      </c>
+      <c r="E273" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F273" t="str">
+        <v>100€</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B274" t="str">
+        <v>Tom Ford</v>
+      </c>
+      <c r="C274" t="str">
+        <v>OMBRE LEATHER PARFUM</v>
+      </c>
+      <c r="D274" t="str">
+        <v/>
+      </c>
+      <c r="E274" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F274" t="str">
+        <v>135€</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B275" t="str">
+        <v>V Canto</v>
+      </c>
+      <c r="C275" t="str">
+        <v>CIANURO EXTRAIT DE PARFUM</v>
+      </c>
+      <c r="D275" t="str">
+        <v/>
+      </c>
+      <c r="E275" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F275" t="str">
+        <v>120€</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B276" t="str">
+        <v>V Canto</v>
+      </c>
+      <c r="C276" t="str">
+        <v>CICUTA EXTRAIT DE PARFUM</v>
+      </c>
+      <c r="D276" t="str">
+        <v/>
+      </c>
+      <c r="E276" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F276" t="str">
+        <v>95€</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B277" t="str">
+        <v>V Canto</v>
+      </c>
+      <c r="C277" t="str">
+        <v>CURARO EXTRAIT DE PARFUM</v>
+      </c>
+      <c r="D277" t="str">
+        <v/>
+      </c>
+      <c r="E277" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F277" t="str">
+        <v>120€</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B278" t="str">
+        <v>V Canto</v>
+      </c>
+      <c r="C278" t="str">
+        <v>LUCRETHIA EXTRAIT DE PARFUM</v>
+      </c>
+      <c r="D278" t="str">
+        <v/>
+      </c>
+      <c r="E278" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F278" t="str">
+        <v>100€</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B279" t="str">
+        <v>V Canto</v>
+      </c>
+      <c r="C279" t="str">
+        <v>MEA CULPA EXTRAIT DE PARFUM</v>
+      </c>
+      <c r="D279" t="str">
+        <v/>
+      </c>
+      <c r="E279" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F279" t="str">
+        <v>95€</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B280" t="str">
+        <v>V Canto</v>
+      </c>
+      <c r="C280" t="str">
+        <v>STRICNINA EXTRAIT DE PARFUM</v>
+      </c>
+      <c r="D280" t="str">
+        <v/>
+      </c>
+      <c r="E280" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F280" t="str">
+        <v>120€</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B281" t="str">
+        <v>Xerjoff Oud Star</v>
+      </c>
+      <c r="C281" t="str">
+        <v>ALEJANDRÍA II PARFUM</v>
+      </c>
+      <c r="D281" t="str">
+        <v/>
+      </c>
+      <c r="E281" t="str">
+        <v>100ml</v>
+      </c>
+      <c r="F281" t="str">
+        <v>310€</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>PERFUMES NICHOS</v>
+      </c>
+      <c r="B282" t="str">
+        <v>Xerjoff Oud Star</v>
+      </c>
+      <c r="C282" t="str">
+        <v>GOLDEN DALLAH PARFUM</v>
+      </c>
+      <c r="D282" t="str">
+        <v/>
+      </c>
+      <c r="E282" t="str">
+        <v>50ml</v>
+      </c>
+      <c r="F282" t="str">
+        <v>160€</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F135"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F282"/>
   </ignoredErrors>
 </worksheet>
 </file>